--- a/raw_data/20200818_saline/20200818_Sensor1_Test_16.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_16.xlsx
@@ -1,523 +1,939 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F129E338-532E-4D4D-A94C-043ECE39EE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>13688.011775</v>
+        <v>13688.011775000001</v>
       </c>
       <c r="B2" s="1">
         <v>3.802225</v>
       </c>
       <c r="C2" s="1">
-        <v>897.504000</v>
+        <v>897.50400000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-199.318000</v>
+        <v>-199.31800000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>13698.098946</v>
       </c>
       <c r="G2" s="1">
-        <v>3.805027</v>
+        <v>3.8050269999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>914.936000</v>
+        <v>914.93600000000004</v>
       </c>
       <c r="I2" s="1">
-        <v>-168.731000</v>
+        <v>-168.73099999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>13708.563508</v>
+        <v>13708.563507999999</v>
       </c>
       <c r="L2" s="1">
-        <v>3.807934</v>
+        <v>3.8079339999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>938.381000</v>
+        <v>938.38099999999997</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.598000</v>
+        <v>-119.598</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>13719.062821</v>
@@ -526,527 +942,527 @@
         <v>3.810851</v>
       </c>
       <c r="R2" s="1">
-        <v>944.935000</v>
+        <v>944.93499999999995</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.410000</v>
+        <v>-103.41</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>13729.628632</v>
       </c>
       <c r="V2" s="1">
-        <v>3.813786</v>
+        <v>3.8137859999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>951.471000</v>
+        <v>951.471</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.403800</v>
+        <v>-88.403800000000004</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>13740.081795</v>
       </c>
       <c r="AA2" s="1">
-        <v>3.816689</v>
+        <v>3.8166890000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>958.640000</v>
+        <v>958.64</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.905900</v>
+        <v>-76.905900000000003</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>13750.977423</v>
       </c>
       <c r="AF2" s="1">
-        <v>3.819716</v>
+        <v>3.8197160000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>963.199000</v>
+        <v>963.19899999999996</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.888300</v>
+        <v>-74.888300000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>13761.435081</v>
       </c>
       <c r="AK2" s="1">
-        <v>3.822621</v>
+        <v>3.8226209999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>970.465000</v>
+        <v>970.46500000000003</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.764300</v>
+        <v>-79.764300000000006</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>13771.993423</v>
       </c>
       <c r="AP2" s="1">
-        <v>3.825554</v>
+        <v>3.8255539999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>978.620000</v>
+        <v>978.62</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.537800</v>
+        <v>-91.537800000000004</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>13782.966396</v>
       </c>
       <c r="AU2" s="1">
-        <v>3.828602</v>
+        <v>3.8286020000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>988.521000</v>
+        <v>988.52099999999996</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.370000</v>
+        <v>-109.37</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>13793.987032</v>
+        <v>13793.987032000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>3.831663</v>
+        <v>3.8316629999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>996.840000</v>
+        <v>996.84</v>
       </c>
       <c r="BB2" s="1">
-        <v>-125.130000</v>
+        <v>-125.13</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>13804.972916</v>
+        <v>13804.972916000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>3.834715</v>
+        <v>3.8347150000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1035.600000</v>
+        <v>1035.5999999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.598000</v>
+        <v>-197.59800000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>13815.404248</v>
+        <v>13815.404248000001</v>
       </c>
       <c r="BJ2" s="1">
         <v>3.837612</v>
       </c>
       <c r="BK2" s="1">
-        <v>1102.190000</v>
+        <v>1102.19</v>
       </c>
       <c r="BL2" s="1">
-        <v>-315.335000</v>
+        <v>-315.33499999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>13826.427832</v>
+        <v>13826.427831999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>3.840674</v>
+        <v>3.8406739999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1210.300000</v>
+        <v>1210.3</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-501.604000</v>
+        <v>-501.60399999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>13837.207915</v>
+        <v>13837.207915000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>3.843669</v>
+        <v>3.8436689999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1332.110000</v>
+        <v>1332.11</v>
       </c>
       <c r="BV2" s="1">
-        <v>-706.523000</v>
+        <v>-706.52300000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>13847.903611</v>
       </c>
       <c r="BY2" s="1">
-        <v>3.846640</v>
+        <v>3.8466399999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1469.420000</v>
+        <v>1469.42</v>
       </c>
       <c r="CA2" s="1">
-        <v>-925.680000</v>
+        <v>-925.68</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>13859.039788</v>
       </c>
       <c r="CD2" s="1">
-        <v>3.849733</v>
+        <v>3.8497330000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1831.790000</v>
+        <v>1831.79</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1445.420000</v>
+        <v>-1445.42</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>13688.409070</v>
+        <v>13688.40907</v>
       </c>
       <c r="B3" s="1">
-        <v>3.802336</v>
+        <v>3.8023359999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>897.397000</v>
+        <v>897.39700000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>-199.605000</v>
+        <v>-199.60499999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>13698.467474</v>
+        <v>13698.467473999999</v>
       </c>
       <c r="G3" s="1">
-        <v>3.805130</v>
+        <v>3.8051300000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>914.863000</v>
+        <v>914.86300000000006</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.763000</v>
+        <v>-168.76300000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>13708.921155</v>
       </c>
       <c r="L3" s="1">
-        <v>3.808034</v>
+        <v>3.8080340000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>938.364000</v>
+        <v>938.36400000000003</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.625000</v>
+        <v>-119.625</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>13719.445360</v>
+        <v>13719.44536</v>
       </c>
       <c r="Q3" s="1">
-        <v>3.810957</v>
+        <v>3.8109570000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>944.946000</v>
+        <v>944.94600000000003</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.361000</v>
+        <v>-103.361</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>13730.352791</v>
+        <v>13730.352790999999</v>
       </c>
       <c r="V3" s="1">
         <v>3.813987</v>
       </c>
       <c r="W3" s="1">
-        <v>951.428000</v>
+        <v>951.428</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.396800</v>
+        <v>-88.396799999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>13740.811401</v>
+        <v>13740.811401000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>3.816892</v>
+        <v>3.8168920000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>958.571000</v>
+        <v>958.57100000000003</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.899400</v>
+        <v>-76.8994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>13751.358331</v>
+        <v>13751.358330999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>3.819822</v>
+        <v>3.8198219999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>963.204000</v>
+        <v>963.20399999999995</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.823300</v>
+        <v>-74.823300000000003</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>13761.798125</v>
+        <v>13761.798124999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>3.822722</v>
+        <v>3.8227220000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>970.472000</v>
+        <v>970.47199999999998</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.764500</v>
+        <v>-79.764499999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>13772.371839</v>
+        <v>13772.371838999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>3.825659</v>
+        <v>3.8256589999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>978.600000</v>
+        <v>978.6</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.518200</v>
+        <v>-91.518199999999993</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>13783.650368</v>
+        <v>13783.650368000001</v>
       </c>
       <c r="AU3" s="1">
         <v>3.828792</v>
       </c>
       <c r="AV3" s="1">
-        <v>988.531000</v>
+        <v>988.53099999999995</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.378000</v>
+        <v>-109.378</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>13794.413586</v>
+        <v>13794.413586000001</v>
       </c>
       <c r="AZ3" s="1">
         <v>3.831782</v>
       </c>
       <c r="BA3" s="1">
-        <v>996.840000</v>
+        <v>996.84</v>
       </c>
       <c r="BB3" s="1">
-        <v>-125.148000</v>
+        <v>-125.148</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>13805.407381</v>
+        <v>13805.407381000001</v>
       </c>
       <c r="BE3" s="1">
         <v>3.834835</v>
       </c>
       <c r="BF3" s="1">
-        <v>1035.580000</v>
+        <v>1035.58</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.583000</v>
+        <v>-197.583</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>13815.784678</v>
       </c>
       <c r="BJ3" s="1">
-        <v>3.837718</v>
+        <v>3.8377180000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1102.220000</v>
+        <v>1102.22</v>
       </c>
       <c r="BL3" s="1">
-        <v>-315.338000</v>
+        <v>-315.33800000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>13826.862360</v>
+        <v>13826.862359999999</v>
       </c>
       <c r="BO3" s="1">
         <v>3.840795</v>
       </c>
       <c r="BP3" s="1">
-        <v>1210.290000</v>
+        <v>1210.29</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-501.620000</v>
+        <v>-501.62</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>13837.670153</v>
+        <v>13837.670152999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>3.843797</v>
+        <v>3.8437969999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1332.060000</v>
+        <v>1332.06</v>
       </c>
       <c r="BV3" s="1">
-        <v>-706.532000</v>
+        <v>-706.53200000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>13848.367383</v>
+        <v>13848.367383000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>3.846769</v>
+        <v>3.8467690000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1469.370000</v>
+        <v>1469.37</v>
       </c>
       <c r="CA3" s="1">
-        <v>-925.723000</v>
+        <v>-925.72299999999996</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>13859.344334</v>
+        <v>13859.344333999999</v>
       </c>
       <c r="CD3" s="1">
         <v>3.849818</v>
       </c>
       <c r="CE3" s="1">
-        <v>1831.990000</v>
+        <v>1831.99</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1446.480000</v>
+        <v>-1446.48</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>13688.752302</v>
+        <v>13688.752302000001</v>
       </c>
       <c r="B4" s="1">
-        <v>3.802431</v>
+        <v>3.8024309999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>897.272000</v>
+        <v>897.27200000000005</v>
       </c>
       <c r="D4" s="1">
-        <v>-199.328000</v>
+        <v>-199.328</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>13698.811170</v>
+        <v>13698.811170000001</v>
       </c>
       <c r="G4" s="1">
-        <v>3.805225</v>
+        <v>3.8052250000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>914.994000</v>
+        <v>914.99400000000003</v>
       </c>
       <c r="I4" s="1">
-        <v>-168.931000</v>
+        <v>-168.93100000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>13709.265842</v>
+        <v>13709.265842000001</v>
       </c>
       <c r="L4" s="1">
-        <v>3.808129</v>
+        <v>3.8081290000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>938.290000</v>
+        <v>938.29</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.615000</v>
+        <v>-119.61499999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>13720.142150</v>
+        <v>13720.14215</v>
       </c>
       <c r="Q4" s="1">
-        <v>3.811151</v>
+        <v>3.8111510000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>944.980000</v>
+        <v>944.98</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.354000</v>
+        <v>-103.354</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>13730.695526</v>
@@ -1055,210 +1471,210 @@
         <v>3.814082</v>
       </c>
       <c r="W4" s="1">
-        <v>951.533000</v>
+        <v>951.53300000000002</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.392000</v>
+        <v>-88.391999999999996</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>13741.160584</v>
+        <v>13741.160583999999</v>
       </c>
       <c r="AA4" s="1">
         <v>3.816989</v>
       </c>
       <c r="AB4" s="1">
-        <v>958.561000</v>
+        <v>958.56100000000004</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.934100</v>
+        <v>-76.934100000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>13751.702554</v>
       </c>
       <c r="AF4" s="1">
-        <v>3.819917</v>
+        <v>3.8199169999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>963.215000</v>
+        <v>963.21500000000003</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.879800</v>
+        <v>-74.879800000000003</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>13762.452350</v>
+        <v>13762.45235</v>
       </c>
       <c r="AK4" s="1">
-        <v>3.822903</v>
+        <v>3.8229030000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>970.471000</v>
+        <v>970.471</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.774800</v>
+        <v>-79.774799999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>13773.046894</v>
+        <v>13773.046893999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>3.825846</v>
+        <v>3.8258459999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>978.617000</v>
+        <v>978.61699999999996</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.518600</v>
+        <v>-91.518600000000006</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>13784.077424</v>
+        <v>13784.077423999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>3.828910</v>
+        <v>3.82891</v>
       </c>
       <c r="AV4" s="1">
-        <v>988.545000</v>
+        <v>988.54499999999996</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.385000</v>
+        <v>-109.38500000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>13794.771170</v>
+        <v>13794.77117</v>
       </c>
       <c r="AZ4" s="1">
-        <v>3.831881</v>
+        <v>3.8318810000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>996.843000</v>
+        <v>996.84299999999996</v>
       </c>
       <c r="BB4" s="1">
-        <v>-125.130000</v>
+        <v>-125.13</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>13805.770947</v>
+        <v>13805.770947000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>3.834936</v>
+        <v>3.8349359999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1035.580000</v>
+        <v>1035.58</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.609000</v>
+        <v>-197.60900000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>13816.157173</v>
       </c>
       <c r="BJ4" s="1">
-        <v>3.837821</v>
+        <v>3.8378209999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1102.200000</v>
+        <v>1102.2</v>
       </c>
       <c r="BL4" s="1">
-        <v>-315.327000</v>
+        <v>-315.327</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>13827.282476</v>
       </c>
       <c r="BO4" s="1">
-        <v>3.840912</v>
+        <v>3.8409119999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1210.300000</v>
+        <v>1210.3</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-501.596000</v>
+        <v>-501.596</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>13838.097240</v>
+        <v>13838.097239999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>3.843916</v>
+        <v>3.8439160000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1331.980000</v>
+        <v>1331.98</v>
       </c>
       <c r="BV4" s="1">
-        <v>-706.558000</v>
+        <v>-706.55799999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>13848.815258</v>
+        <v>13848.815258000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>3.846893</v>
+        <v>3.8468930000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1469.240000</v>
+        <v>1469.24</v>
       </c>
       <c r="CA4" s="1">
-        <v>-925.763000</v>
+        <v>-925.76300000000003</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>13859.876576</v>
+        <v>13859.876576000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>3.849966</v>
+        <v>3.8499660000000002</v>
       </c>
       <c r="CE4" s="1">
-        <v>1830.410000</v>
+        <v>1830.41</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1445.950000</v>
+        <v>-1445.95</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>13689.090573</v>
+        <v>13689.090572999999</v>
       </c>
       <c r="B5" s="1">
-        <v>3.802525</v>
+        <v>3.8025250000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>897.368000</v>
+        <v>897.36800000000005</v>
       </c>
       <c r="D5" s="1">
-        <v>-199.323000</v>
+        <v>-199.32300000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>13699.504577</v>
@@ -1267,118 +1683,118 @@
         <v>3.805418</v>
       </c>
       <c r="H5" s="1">
-        <v>915.190000</v>
+        <v>915.19</v>
       </c>
       <c r="I5" s="1">
-        <v>-168.818000</v>
+        <v>-168.81800000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>13709.955778</v>
       </c>
       <c r="L5" s="1">
-        <v>3.808321</v>
+        <v>3.8083209999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>938.332000</v>
+        <v>938.33199999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.614000</v>
+        <v>-119.614</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>13720.490307</v>
       </c>
       <c r="Q5" s="1">
-        <v>3.811247</v>
+        <v>3.8112469999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>944.992000</v>
+        <v>944.99199999999996</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.395000</v>
+        <v>-103.395</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>13731.043219</v>
+        <v>13731.043218999999</v>
       </c>
       <c r="V5" s="1">
-        <v>3.814179</v>
+        <v>3.8141790000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>951.484000</v>
+        <v>951.48400000000004</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.332700</v>
+        <v>-88.332700000000003</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>13741.507812</v>
       </c>
       <c r="AA5" s="1">
-        <v>3.817086</v>
+        <v>3.8170860000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>958.520000</v>
+        <v>958.52</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.868600</v>
+        <v>-76.868600000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>13752.357273</v>
       </c>
       <c r="AF5" s="1">
-        <v>3.820099</v>
+        <v>3.8200989999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>963.272000</v>
+        <v>963.27200000000005</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.844500</v>
+        <v>-74.844499999999996</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>13762.843233</v>
       </c>
       <c r="AK5" s="1">
-        <v>3.823012</v>
+        <v>3.8230119999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>970.482000</v>
+        <v>970.48199999999997</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.767600</v>
+        <v>-79.767600000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>13773.481422</v>
+        <v>13773.481422000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>3.825967</v>
+        <v>3.8259669999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>978.616000</v>
+        <v>978.61599999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.516200</v>
+        <v>-91.516199999999998</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>13784.465328</v>
@@ -1387,43 +1803,43 @@
         <v>3.829018</v>
       </c>
       <c r="AV5" s="1">
-        <v>988.521000</v>
+        <v>988.52099999999996</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.378000</v>
+        <v>-109.378</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>13795.131265</v>
       </c>
       <c r="AZ5" s="1">
-        <v>3.831981</v>
+        <v>3.8319809999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>996.843000</v>
+        <v>996.84299999999996</v>
       </c>
       <c r="BB5" s="1">
-        <v>-125.128000</v>
+        <v>-125.128</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>13806.131044</v>
       </c>
       <c r="BE5" s="1">
-        <v>3.835036</v>
+        <v>3.8350360000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1035.570000</v>
+        <v>1035.57</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.593000</v>
+        <v>-197.59299999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>13816.570838</v>
@@ -1432,135 +1848,135 @@
         <v>3.837936</v>
       </c>
       <c r="BK5" s="1">
-        <v>1102.190000</v>
+        <v>1102.19</v>
       </c>
       <c r="BL5" s="1">
-        <v>-315.353000</v>
+        <v>-315.35300000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>13827.680726</v>
+        <v>13827.680726000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>3.841022</v>
+        <v>3.8410220000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1210.320000</v>
+        <v>1210.32</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-501.613000</v>
+        <v>-501.613</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>13838.502935</v>
       </c>
       <c r="BT5" s="1">
-        <v>3.844029</v>
+        <v>3.8440289999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1331.980000</v>
+        <v>1331.98</v>
       </c>
       <c r="BV5" s="1">
-        <v>-706.640000</v>
+        <v>-706.64</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>13849.236889</v>
       </c>
       <c r="BY5" s="1">
-        <v>3.847010</v>
+        <v>3.84701</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1469.320000</v>
+        <v>1469.32</v>
       </c>
       <c r="CA5" s="1">
-        <v>-925.712000</v>
+        <v>-925.71199999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>13860.415197</v>
       </c>
       <c r="CD5" s="1">
-        <v>3.850115</v>
+        <v>3.8501150000000002</v>
       </c>
       <c r="CE5" s="1">
-        <v>1831.840000</v>
+        <v>1831.84</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1447.320000</v>
+        <v>-1447.32</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>13689.778524</v>
+        <v>13689.778523999999</v>
       </c>
       <c r="B6" s="1">
-        <v>3.802716</v>
+        <v>3.8027160000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>897.395000</v>
+        <v>897.39499999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-199.358000</v>
+        <v>-199.358</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>13699.851315</v>
       </c>
       <c r="G6" s="1">
-        <v>3.805514</v>
+        <v>3.8055140000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>915.299000</v>
+        <v>915.29899999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.971000</v>
+        <v>-168.971</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>13710.305955</v>
       </c>
       <c r="L6" s="1">
-        <v>3.808418</v>
+        <v>3.8084180000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>938.252000</v>
+        <v>938.25199999999995</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.692000</v>
+        <v>-119.69199999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>13720.846435</v>
+        <v>13720.846434999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>3.811346</v>
+        <v>3.8113459999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>944.993000</v>
+        <v>944.99300000000005</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.381000</v>
+        <v>-103.381</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>13731.715269</v>
@@ -1569,13 +1985,13 @@
         <v>3.814365</v>
       </c>
       <c r="W6" s="1">
-        <v>951.538000</v>
+        <v>951.53800000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.335800</v>
+        <v>-88.335800000000006</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>13742.167991</v>
@@ -1584,133 +2000,133 @@
         <v>3.817269</v>
       </c>
       <c r="AB6" s="1">
-        <v>958.619000</v>
+        <v>958.61900000000003</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.823700</v>
+        <v>-76.823700000000002</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>13752.727322</v>
+        <v>13752.727322000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.820202</v>
+        <v>3.8202020000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>963.241000</v>
+        <v>963.24099999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.836700</v>
+        <v>-74.836699999999993</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>13763.191273</v>
       </c>
       <c r="AK6" s="1">
-        <v>3.823109</v>
+        <v>3.8231090000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>970.469000</v>
+        <v>970.46900000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.735300</v>
+        <v>-79.735299999999995</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>13773.842477</v>
       </c>
       <c r="AP6" s="1">
-        <v>3.826067</v>
+        <v>3.8260670000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>978.605000</v>
+        <v>978.60500000000002</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.522800</v>
+        <v>-91.522800000000004</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>13784.829854</v>
       </c>
       <c r="AU6" s="1">
-        <v>3.829119</v>
+        <v>3.8291189999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>988.522000</v>
+        <v>988.52200000000005</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.374000</v>
+        <v>-109.374</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>13795.550882</v>
       </c>
       <c r="AZ6" s="1">
-        <v>3.832097</v>
+        <v>3.8320970000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>996.820000</v>
+        <v>996.82</v>
       </c>
       <c r="BB6" s="1">
-        <v>-125.140000</v>
+        <v>-125.14</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>13806.554659</v>
+        <v>13806.554658999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>3.835154</v>
+        <v>3.8351540000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1035.620000</v>
+        <v>1035.6199999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.603000</v>
+        <v>-197.60300000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>13816.930436</v>
+        <v>13816.930436000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>3.838036</v>
+        <v>3.8380359999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1102.200000</v>
+        <v>1102.2</v>
       </c>
       <c r="BL6" s="1">
-        <v>-315.344000</v>
+        <v>-315.34399999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>13828.077525</v>
+        <v>13828.077525000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>3.841133</v>
+        <v>3.8411330000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1210.330000</v>
+        <v>1210.33</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-501.629000</v>
+        <v>-501.62900000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>13838.919575</v>
@@ -1719,13 +2135,13 @@
         <v>3.844144</v>
       </c>
       <c r="BU6" s="1">
-        <v>1331.940000</v>
+        <v>1331.94</v>
       </c>
       <c r="BV6" s="1">
-        <v>-706.698000</v>
+        <v>-706.69799999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>13849.658985</v>
@@ -1734,497 +2150,497 @@
         <v>3.847127</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1469.350000</v>
+        <v>1469.35</v>
       </c>
       <c r="CA6" s="1">
-        <v>-925.871000</v>
+        <v>-925.87099999999998</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>13860.956330</v>
+        <v>13860.956330000001</v>
       </c>
       <c r="CD6" s="1">
         <v>3.850266</v>
       </c>
       <c r="CE6" s="1">
-        <v>1831.110000</v>
+        <v>1831.11</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1446.070000</v>
+        <v>-1446.07</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>13690.118284</v>
       </c>
       <c r="B7" s="1">
-        <v>3.802811</v>
+        <v>3.8028110000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>897.495000</v>
+        <v>897.495</v>
       </c>
       <c r="D7" s="1">
-        <v>-199.508000</v>
+        <v>-199.50800000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>13700.190578</v>
       </c>
       <c r="G7" s="1">
-        <v>3.805608</v>
+        <v>3.8056079999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>915.156000</v>
+        <v>915.15599999999995</v>
       </c>
       <c r="I7" s="1">
-        <v>-168.356000</v>
+        <v>-168.35599999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>13710.655633</v>
       </c>
       <c r="L7" s="1">
-        <v>3.808515</v>
+        <v>3.8085149999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>938.364000</v>
+        <v>938.36400000000003</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.551000</v>
+        <v>-119.551</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>13721.498709</v>
       </c>
       <c r="Q7" s="1">
-        <v>3.811527</v>
+        <v>3.8115269999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>944.959000</v>
+        <v>944.95899999999995</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.382000</v>
+        <v>-103.38200000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>13732.072388</v>
+        <v>13732.072388000001</v>
       </c>
       <c r="V7" s="1">
-        <v>3.814465</v>
+        <v>3.8144650000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>951.554000</v>
+        <v>951.55399999999997</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.375700</v>
+        <v>-88.375699999999995</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>13742.555862</v>
+        <v>13742.555861999999</v>
       </c>
       <c r="AA7" s="1">
         <v>3.817377</v>
       </c>
       <c r="AB7" s="1">
-        <v>958.585000</v>
+        <v>958.58500000000004</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.892600</v>
+        <v>-76.892600000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>13753.076473</v>
+        <v>13753.076472999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.820299</v>
+        <v>3.8202989999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>963.243000</v>
+        <v>963.24300000000005</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.899300</v>
+        <v>-74.899299999999997</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>13763.543050</v>
+        <v>13763.54305</v>
       </c>
       <c r="AK7" s="1">
-        <v>3.823206</v>
+        <v>3.8232059999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>970.459000</v>
+        <v>970.45899999999995</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.733000</v>
+        <v>-79.733000000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>13774.201085</v>
+        <v>13774.201085000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>3.826167</v>
+        <v>3.8261669999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>978.594000</v>
+        <v>978.59400000000005</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.521300</v>
+        <v>-91.521299999999997</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>13785.257904</v>
       </c>
       <c r="AU7" s="1">
-        <v>3.829238</v>
+        <v>3.8292380000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>988.518000</v>
+        <v>988.51800000000003</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.400000</v>
+        <v>-109.4</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>13795.847984</v>
       </c>
       <c r="AZ7" s="1">
-        <v>3.832180</v>
+        <v>3.8321800000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>996.825000</v>
+        <v>996.82500000000005</v>
       </c>
       <c r="BB7" s="1">
-        <v>-125.159000</v>
+        <v>-125.15900000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>13806.850738</v>
+        <v>13806.850737999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>3.835236</v>
+        <v>3.8352360000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1035.580000</v>
+        <v>1035.58</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.593000</v>
+        <v>-197.59299999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>13817.305443</v>
+        <v>13817.305442999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>3.838140</v>
+        <v>3.8381400000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1102.200000</v>
+        <v>1102.2</v>
       </c>
       <c r="BL7" s="1">
-        <v>-315.335000</v>
+        <v>-315.33499999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>13828.499628</v>
       </c>
       <c r="BO7" s="1">
-        <v>3.841250</v>
+        <v>3.8412500000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1210.330000</v>
+        <v>1210.33</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-501.662000</v>
+        <v>-501.66199999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>13839.334230</v>
+        <v>13839.33423</v>
       </c>
       <c r="BT7" s="1">
-        <v>3.844260</v>
+        <v>3.8442599999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1331.980000</v>
+        <v>1331.98</v>
       </c>
       <c r="BV7" s="1">
-        <v>-706.775000</v>
+        <v>-706.77499999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>13850.085016</v>
+        <v>13850.085016000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>3.847246</v>
+        <v>3.8472460000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1469.370000</v>
+        <v>1469.37</v>
       </c>
       <c r="CA7" s="1">
-        <v>-925.689000</v>
+        <v>-925.68899999999996</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>13861.497963</v>
       </c>
       <c r="CD7" s="1">
-        <v>3.850416</v>
+        <v>3.8504160000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1830.660000</v>
+        <v>1830.66</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1446.960000</v>
+        <v>-1446.96</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>13690.461515</v>
+        <v>13690.461515000001</v>
       </c>
       <c r="B8" s="1">
-        <v>3.802906</v>
+        <v>3.8029060000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>897.395000</v>
+        <v>897.39499999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>-199.359000</v>
+        <v>-199.35900000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>13700.842299</v>
       </c>
       <c r="G8" s="1">
-        <v>3.805790</v>
+        <v>3.80579</v>
       </c>
       <c r="H8" s="1">
-        <v>915.498000</v>
+        <v>915.49800000000005</v>
       </c>
       <c r="I8" s="1">
-        <v>-168.969000</v>
+        <v>-168.96899999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>13711.343089</v>
       </c>
       <c r="L8" s="1">
-        <v>3.808706</v>
+        <v>3.8087059999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>938.465000</v>
+        <v>938.46500000000003</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.430000</v>
+        <v>-119.43</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>13721.882606</v>
+        <v>13721.882605999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>3.811634</v>
+        <v>3.8116340000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>944.952000</v>
+        <v>944.952</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.345000</v>
+        <v>-103.345</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>13732.418597</v>
       </c>
       <c r="V8" s="1">
-        <v>3.814561</v>
+        <v>3.8145609999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>951.521000</v>
+        <v>951.52099999999996</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.373200</v>
+        <v>-88.373199999999997</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>13742.904556</v>
       </c>
       <c r="AA8" s="1">
-        <v>3.817473</v>
+        <v>3.8174730000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>958.580000</v>
+        <v>958.58</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.753400</v>
+        <v>-76.753399999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>13753.415276</v>
       </c>
       <c r="AF8" s="1">
-        <v>3.820393</v>
+        <v>3.8203930000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>963.236000</v>
+        <v>963.23599999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.856100</v>
+        <v>-74.856099999999998</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>13763.967627</v>
       </c>
       <c r="AK8" s="1">
-        <v>3.823324</v>
+        <v>3.8233239999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>970.482000</v>
+        <v>970.48199999999997</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.751600</v>
+        <v>-79.751599999999996</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>13774.625692</v>
       </c>
       <c r="AP8" s="1">
-        <v>3.826285</v>
+        <v>3.8262849999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>978.600000</v>
+        <v>978.6</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.512400</v>
+        <v>-91.5124</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>13785.560462</v>
+        <v>13785.560461999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>3.829322</v>
+        <v>3.8293219999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>988.512000</v>
+        <v>988.51199999999994</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.391000</v>
+        <v>-109.39100000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>13796.207088</v>
+        <v>13796.207087999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>3.832280</v>
+        <v>3.8322799999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>996.822000</v>
+        <v>996.822</v>
       </c>
       <c r="BB8" s="1">
-        <v>-125.144000</v>
+        <v>-125.14400000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>13807.209841</v>
       </c>
       <c r="BE8" s="1">
-        <v>3.835336</v>
+        <v>3.8353359999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1035.600000</v>
+        <v>1035.5999999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.614000</v>
+        <v>-197.614</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>13817.680387</v>
       </c>
       <c r="BJ8" s="1">
-        <v>3.838245</v>
+        <v>3.8382450000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1102.200000</v>
+        <v>1102.2</v>
       </c>
       <c r="BL8" s="1">
-        <v>-315.326000</v>
+        <v>-315.32600000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>13829.314052</v>
       </c>
       <c r="BO8" s="1">
-        <v>3.841476</v>
+        <v>3.8414760000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1210.350000</v>
+        <v>1210.3499999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-501.630000</v>
+        <v>-501.63</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>13839.773686</v>
@@ -2233,120 +2649,120 @@
         <v>3.844382</v>
       </c>
       <c r="BU8" s="1">
-        <v>1331.990000</v>
+        <v>1331.99</v>
       </c>
       <c r="BV8" s="1">
-        <v>-706.758000</v>
+        <v>-706.75800000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>13850.502152</v>
+        <v>13850.502151999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>3.847362</v>
+        <v>3.8473619999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1469.400000</v>
+        <v>1469.4</v>
       </c>
       <c r="CA8" s="1">
-        <v>-925.780000</v>
+        <v>-925.78</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>13862.037642</v>
+        <v>13862.037641999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>3.850566</v>
+        <v>3.8505660000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>1831.980000</v>
+        <v>1831.98</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1446.660000</v>
+        <v>-1446.66</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>13691.126650</v>
+        <v>13691.12665</v>
       </c>
       <c r="B9" s="1">
-        <v>3.803091</v>
+        <v>3.8030910000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>897.659000</v>
+        <v>897.65899999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-199.547000</v>
+        <v>-199.547</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>13701.225197</v>
       </c>
       <c r="G9" s="1">
-        <v>3.805896</v>
+        <v>3.8058960000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>915.091000</v>
+        <v>915.09100000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-168.457000</v>
+        <v>-168.45699999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>13711.693264</v>
       </c>
       <c r="L9" s="1">
-        <v>3.808804</v>
+        <v>3.8088039999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>938.356000</v>
+        <v>938.35599999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.885000</v>
+        <v>-119.88500000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>13722.235267</v>
       </c>
       <c r="Q9" s="1">
-        <v>3.811732</v>
+        <v>3.8117320000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>944.971000</v>
+        <v>944.971</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.384000</v>
+        <v>-103.384</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>13732.757395</v>
+        <v>13732.757395000001</v>
       </c>
       <c r="V9" s="1">
-        <v>3.814655</v>
+        <v>3.8146550000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>951.516000</v>
+        <v>951.51599999999996</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.454300</v>
+        <v>-88.454300000000003</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>13743.256678</v>
@@ -2355,148 +2771,148 @@
         <v>3.817571</v>
       </c>
       <c r="AB9" s="1">
-        <v>958.496000</v>
+        <v>958.49599999999998</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.992200</v>
+        <v>-76.992199999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>13753.850728</v>
+        <v>13753.850727999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>3.820514</v>
+        <v>3.8205140000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>963.195000</v>
+        <v>963.19500000000005</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.878600</v>
+        <v>-74.878600000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>13764.246378</v>
       </c>
       <c r="AK9" s="1">
-        <v>3.823402</v>
+        <v>3.8234020000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>970.476000</v>
+        <v>970.476</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.751200</v>
+        <v>-79.751199999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>13774.919789</v>
       </c>
       <c r="AP9" s="1">
-        <v>3.826367</v>
+        <v>3.8263669999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>978.616000</v>
+        <v>978.61599999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.530200</v>
+        <v>-91.530199999999994</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>13785.924525</v>
       </c>
       <c r="AU9" s="1">
-        <v>3.829423</v>
+        <v>3.8294229999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>988.521000</v>
+        <v>988.52099999999996</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.376000</v>
+        <v>-109.376</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>13796.566719</v>
       </c>
       <c r="AZ9" s="1">
-        <v>3.832380</v>
+        <v>3.8323800000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>996.845000</v>
+        <v>996.84500000000003</v>
       </c>
       <c r="BB9" s="1">
-        <v>-125.136000</v>
+        <v>-125.136</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>13807.576385</v>
       </c>
       <c r="BE9" s="1">
-        <v>3.835438</v>
+        <v>3.8354379999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1035.600000</v>
+        <v>1035.5999999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.611000</v>
+        <v>-197.61099999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>13818.435300</v>
+        <v>13818.435299999999</v>
       </c>
       <c r="BJ9" s="1">
         <v>3.838454</v>
       </c>
       <c r="BK9" s="1">
-        <v>1102.210000</v>
+        <v>1102.21</v>
       </c>
       <c r="BL9" s="1">
-        <v>-315.350000</v>
+        <v>-315.35000000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>13829.735430</v>
+        <v>13829.735430000001</v>
       </c>
       <c r="BO9" s="1">
         <v>3.841593</v>
       </c>
       <c r="BP9" s="1">
-        <v>1210.280000</v>
+        <v>1210.28</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-501.639000</v>
+        <v>-501.63900000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>13840.200742</v>
+        <v>13840.200742000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>3.844500</v>
+        <v>3.8445</v>
       </c>
       <c r="BU9" s="1">
-        <v>1331.980000</v>
+        <v>1331.98</v>
       </c>
       <c r="BV9" s="1">
-        <v>-706.843000</v>
+        <v>-706.84299999999996</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>13850.950187</v>
@@ -2505,120 +2921,120 @@
         <v>3.847486</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1469.290000</v>
+        <v>1469.29</v>
       </c>
       <c r="CA9" s="1">
-        <v>-925.853000</v>
+        <v>-925.85299999999995</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>13862.887287</v>
       </c>
       <c r="CD9" s="1">
-        <v>3.850802</v>
+        <v>3.8508019999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>1830.780000</v>
+        <v>1830.78</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1447.290000</v>
+        <v>-1447.29</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>13691.483770</v>
+        <v>13691.483770000001</v>
       </c>
       <c r="B10" s="1">
-        <v>3.803190</v>
+        <v>3.8031899999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>897.516000</v>
+        <v>897.51599999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>-199.529000</v>
+        <v>-199.529</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>13701.570414</v>
       </c>
       <c r="G10" s="1">
-        <v>3.805992</v>
+        <v>3.8059919999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>914.934000</v>
+        <v>914.93399999999997</v>
       </c>
       <c r="I10" s="1">
-        <v>-168.318000</v>
+        <v>-168.31800000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>13712.038021</v>
       </c>
       <c r="L10" s="1">
-        <v>3.808899</v>
+        <v>3.8088989999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>938.072000</v>
+        <v>938.072</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.732000</v>
+        <v>-119.732</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>13722.579985</v>
       </c>
       <c r="Q10" s="1">
-        <v>3.811828</v>
+        <v>3.8118280000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>944.982000</v>
+        <v>944.98199999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.404000</v>
+        <v>-103.404</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>13733.168051</v>
+        <v>13733.168051000001</v>
       </c>
       <c r="V10" s="1">
-        <v>3.814769</v>
+        <v>3.8147690000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>951.541000</v>
+        <v>951.54100000000005</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.363300</v>
+        <v>-88.363299999999995</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>13743.691669</v>
       </c>
       <c r="AA10" s="1">
-        <v>3.817692</v>
+        <v>3.8176920000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>958.495000</v>
+        <v>958.495</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.951600</v>
+        <v>-76.951599999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>13754.130969</v>
@@ -2627,375 +3043,375 @@
         <v>3.820592</v>
       </c>
       <c r="AG10" s="1">
-        <v>963.235000</v>
+        <v>963.23500000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.884500</v>
+        <v>-74.884500000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>13764.593114</v>
+        <v>13764.593113999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>3.823498</v>
+        <v>3.8234979999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>970.488000</v>
+        <v>970.48800000000006</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.752100</v>
+        <v>-79.752099999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>13775.281371</v>
+        <v>13775.281370999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>3.826467</v>
+        <v>3.8264670000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>978.587000</v>
+        <v>978.58699999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.517800</v>
+        <v>-91.517799999999994</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>13786.289084</v>
       </c>
       <c r="AU10" s="1">
-        <v>3.829525</v>
+        <v>3.8295249999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>988.529000</v>
+        <v>988.529</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.375000</v>
+        <v>-109.375</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>13797.289855</v>
+        <v>13797.289855000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>3.832581</v>
+        <v>3.8325809999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>996.826000</v>
+        <v>996.82600000000002</v>
       </c>
       <c r="BB10" s="1">
-        <v>-125.132000</v>
+        <v>-125.13200000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>13808.298063</v>
       </c>
       <c r="BE10" s="1">
-        <v>3.835638</v>
+        <v>3.8356379999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1035.590000</v>
+        <v>1035.5899999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.612000</v>
+        <v>-197.61199999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>13818.805841</v>
+        <v>13818.805840999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>3.838557</v>
+        <v>3.8385570000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1102.220000</v>
+        <v>1102.22</v>
       </c>
       <c r="BL10" s="1">
-        <v>-315.330000</v>
+        <v>-315.33</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>13830.131460</v>
+        <v>13830.131460000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>3.841703</v>
+        <v>3.8417029999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1210.330000</v>
+        <v>1210.33</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-501.619000</v>
+        <v>-501.61900000000003</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>13840.611430</v>
+        <v>13840.611430000001</v>
       </c>
       <c r="BT10" s="1">
         <v>3.844614</v>
       </c>
       <c r="BU10" s="1">
-        <v>1332.040000</v>
+        <v>1332.04</v>
       </c>
       <c r="BV10" s="1">
-        <v>-706.929000</v>
+        <v>-706.92899999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>13851.680648</v>
       </c>
       <c r="BY10" s="1">
-        <v>3.847689</v>
+        <v>3.8476889999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1469.370000</v>
+        <v>1469.37</v>
       </c>
       <c r="CA10" s="1">
-        <v>-925.805000</v>
+        <v>-925.80499999999995</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>13863.114423</v>
+        <v>13863.114423000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>3.850865</v>
+        <v>3.8508650000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>1830.790000</v>
+        <v>1830.79</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1447.310000</v>
+        <v>-1447.31</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>13691.830473</v>
       </c>
       <c r="B11" s="1">
-        <v>3.803286</v>
+        <v>3.8032859999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>897.532000</v>
+        <v>897.53200000000004</v>
       </c>
       <c r="D11" s="1">
-        <v>-199.513000</v>
+        <v>-199.51300000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>13701.921084</v>
       </c>
       <c r="G11" s="1">
-        <v>3.806089</v>
+        <v>3.8060890000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>915.412000</v>
+        <v>915.41200000000003</v>
       </c>
       <c r="I11" s="1">
-        <v>-169.167000</v>
+        <v>-169.167</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>13712.461566</v>
       </c>
       <c r="L11" s="1">
-        <v>3.809017</v>
+        <v>3.8090169999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>938.223000</v>
+        <v>938.22299999999996</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.563000</v>
+        <v>-119.563</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>13723.004034</v>
       </c>
       <c r="Q11" s="1">
-        <v>3.811946</v>
+        <v>3.8119459999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>945.017000</v>
+        <v>945.01700000000005</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.394000</v>
+        <v>-103.39400000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>13733.445811</v>
       </c>
       <c r="V11" s="1">
-        <v>3.814846</v>
+        <v>3.8148460000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>951.443000</v>
+        <v>951.44299999999998</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.366200</v>
+        <v>-88.366200000000006</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>13743.958032</v>
       </c>
       <c r="AA11" s="1">
-        <v>3.817766</v>
+        <v>3.8177660000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>958.554000</v>
+        <v>958.55399999999997</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.928200</v>
+        <v>-76.928200000000004</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>13754.474696</v>
+        <v>13754.474695999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>3.820687</v>
+        <v>3.8206869999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>963.254000</v>
+        <v>963.25400000000002</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.825500</v>
+        <v>-74.825500000000005</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>13764.942265</v>
       </c>
       <c r="AK11" s="1">
-        <v>3.823595</v>
+        <v>3.8235950000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>970.464000</v>
+        <v>970.46400000000006</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.750900</v>
+        <v>-79.750900000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>13775.645931</v>
+        <v>13775.645930999999</v>
       </c>
       <c r="AP11" s="1">
         <v>3.826568</v>
       </c>
       <c r="AQ11" s="1">
-        <v>978.607000</v>
+        <v>978.60699999999997</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.523300</v>
+        <v>-91.523300000000006</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>13787.016716</v>
       </c>
       <c r="AU11" s="1">
-        <v>3.829727</v>
+        <v>3.8297270000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>988.531000</v>
+        <v>988.53099999999995</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.387000</v>
+        <v>-109.387</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>13797.669822</v>
       </c>
       <c r="AZ11" s="1">
-        <v>3.832686</v>
+        <v>3.8326859999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>996.836000</v>
+        <v>996.83600000000001</v>
       </c>
       <c r="BB11" s="1">
-        <v>-125.142000</v>
+        <v>-125.142</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>13808.687423</v>
+        <v>13808.687422999999</v>
       </c>
       <c r="BE11" s="1">
         <v>3.835747</v>
       </c>
       <c r="BF11" s="1">
-        <v>1035.610000</v>
+        <v>1035.6099999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.600000</v>
+        <v>-197.6</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>13819.183761</v>
       </c>
       <c r="BJ11" s="1">
-        <v>3.838662</v>
+        <v>3.8386619999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1102.210000</v>
+        <v>1102.21</v>
       </c>
       <c r="BL11" s="1">
-        <v>-315.320000</v>
+        <v>-315.32</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>13830.867026</v>
       </c>
       <c r="BO11" s="1">
-        <v>3.841908</v>
+        <v>3.8419080000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1210.310000</v>
+        <v>1210.31</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-501.633000</v>
+        <v>-501.63299999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>13841.364889</v>
@@ -3004,75 +3420,75 @@
         <v>3.844824</v>
       </c>
       <c r="BU11" s="1">
-        <v>1332.040000</v>
+        <v>1332.04</v>
       </c>
       <c r="BV11" s="1">
-        <v>-706.915000</v>
+        <v>-706.91499999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>13851.804679</v>
+        <v>13851.804679000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>3.847724</v>
+        <v>3.8477239999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1469.420000</v>
+        <v>1469.42</v>
       </c>
       <c r="CA11" s="1">
-        <v>-925.855000</v>
+        <v>-925.85500000000002</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>13863.633238</v>
       </c>
       <c r="CD11" s="1">
-        <v>3.851009</v>
+        <v>3.8510089999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1831.920000</v>
+        <v>1831.92</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1447.010000</v>
+        <v>-1447.01</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>13692.171226</v>
       </c>
       <c r="B12" s="1">
-        <v>3.803381</v>
+        <v>3.8033809999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>897.509000</v>
+        <v>897.50900000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-199.414000</v>
+        <v>-199.41399999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>13702.334251</v>
       </c>
       <c r="G12" s="1">
-        <v>3.806204</v>
+        <v>3.8062040000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>915.376000</v>
+        <v>915.37599999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.564000</v>
+        <v>-168.56399999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>13712.736846</v>
@@ -3081,73 +3497,73 @@
         <v>3.809094</v>
       </c>
       <c r="M12" s="1">
-        <v>938.334000</v>
+        <v>938.33399999999995</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.439000</v>
+        <v>-119.43899999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>13723.277825</v>
+        <v>13723.277824999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>3.812022</v>
+        <v>3.8120219999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>945.024000</v>
+        <v>945.024</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.407000</v>
+        <v>-103.407</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>13733.789046</v>
       </c>
       <c r="V12" s="1">
-        <v>3.814941</v>
+        <v>3.8149410000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>951.476000</v>
+        <v>951.476</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.373300</v>
+        <v>-88.3733</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>13744.305716</v>
+        <v>13744.305716000001</v>
       </c>
       <c r="AA12" s="1">
         <v>3.817863</v>
       </c>
       <c r="AB12" s="1">
-        <v>958.554000</v>
+        <v>958.55399999999997</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.846800</v>
+        <v>-76.846800000000002</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>13754.817462</v>
+        <v>13754.817462000001</v>
       </c>
       <c r="AF12" s="1">
         <v>3.820783</v>
       </c>
       <c r="AG12" s="1">
-        <v>963.273000</v>
+        <v>963.27300000000002</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.864600</v>
+        <v>-74.864599999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>13765.636664</v>
@@ -3156,118 +3572,118 @@
         <v>3.823788</v>
       </c>
       <c r="AL12" s="1">
-        <v>970.474000</v>
+        <v>970.47400000000005</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.779800</v>
+        <v>-79.779799999999994</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>13776.371579</v>
+        <v>13776.371579000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>3.826770</v>
+        <v>3.8267699999999998</v>
       </c>
       <c r="AQ12" s="1">
-        <v>978.606000</v>
+        <v>978.60599999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.521100</v>
+        <v>-91.521100000000004</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>13787.382267</v>
+        <v>13787.382267000001</v>
       </c>
       <c r="AU12" s="1">
         <v>3.829828</v>
       </c>
       <c r="AV12" s="1">
-        <v>988.554000</v>
+        <v>988.55399999999997</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.377000</v>
+        <v>-109.377</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>13798.047741</v>
       </c>
       <c r="AZ12" s="1">
-        <v>3.832791</v>
+        <v>3.8327909999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>996.837000</v>
+        <v>996.83699999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-125.141000</v>
+        <v>-125.14100000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>13809.045039</v>
+        <v>13809.045039000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>3.835846</v>
+        <v>3.8358460000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1035.570000</v>
+        <v>1035.57</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.603000</v>
+        <v>-197.60300000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>13819.871712</v>
       </c>
       <c r="BJ12" s="1">
-        <v>3.838853</v>
+        <v>3.8388529999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1102.230000</v>
+        <v>1102.23</v>
       </c>
       <c r="BL12" s="1">
-        <v>-315.346000</v>
+        <v>-315.346</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>13830.978131</v>
       </c>
       <c r="BO12" s="1">
-        <v>3.841938</v>
+        <v>3.8419379999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1210.330000</v>
+        <v>1210.33</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-501.593000</v>
+        <v>-501.59300000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>13841.469508</v>
       </c>
       <c r="BT12" s="1">
-        <v>3.844853</v>
+        <v>3.8448530000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1332.050000</v>
+        <v>1332.05</v>
       </c>
       <c r="BV12" s="1">
-        <v>-706.959000</v>
+        <v>-706.95899999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>13852.242117</v>
@@ -3276,31 +3692,31 @@
         <v>3.847845</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1469.320000</v>
+        <v>1469.32</v>
       </c>
       <c r="CA12" s="1">
-        <v>-925.764000</v>
+        <v>-925.76400000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>13864.152551</v>
+        <v>13864.152550999999</v>
       </c>
       <c r="CD12" s="1">
         <v>3.851153</v>
       </c>
       <c r="CE12" s="1">
-        <v>1831.670000</v>
+        <v>1831.67</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1447.350000</v>
+        <v>-1447.35</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>13692.597566</v>
       </c>
@@ -3308,43 +3724,43 @@
         <v>3.803499</v>
       </c>
       <c r="C13" s="1">
-        <v>897.481000</v>
+        <v>897.48099999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-199.641000</v>
+        <v>-199.64099999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>13702.624934</v>
+        <v>13702.624933999999</v>
       </c>
       <c r="G13" s="1">
-        <v>3.806285</v>
+        <v>3.8062849999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>915.102000</v>
+        <v>915.10199999999998</v>
       </c>
       <c r="I13" s="1">
-        <v>-168.918000</v>
+        <v>-168.91800000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>13713.083055</v>
+        <v>13713.083054999999</v>
       </c>
       <c r="L13" s="1">
-        <v>3.809190</v>
+        <v>3.8091900000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>938.150000</v>
+        <v>938.15</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.631000</v>
+        <v>-119.631</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>13723.627504</v>
@@ -3353,300 +3769,300 @@
         <v>3.812119</v>
       </c>
       <c r="R13" s="1">
-        <v>944.995000</v>
+        <v>944.995</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.382000</v>
+        <v>-103.38200000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>13734.133298</v>
+        <v>13734.133298000001</v>
       </c>
       <c r="V13" s="1">
-        <v>3.815037</v>
+        <v>3.8150369999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>951.408000</v>
+        <v>951.40800000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.362900</v>
+        <v>-88.362899999999996</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>13745.003092</v>
+        <v>13745.003092000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>3.818056</v>
+        <v>3.8180559999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>958.591000</v>
+        <v>958.59100000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.987100</v>
+        <v>-76.987099999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>13755.505877</v>
       </c>
       <c r="AF13" s="1">
-        <v>3.820974</v>
+        <v>3.8209740000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>963.246000</v>
+        <v>963.24599999999998</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.857200</v>
+        <v>-74.857200000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>13765.988823</v>
       </c>
       <c r="AK13" s="1">
-        <v>3.823886</v>
+        <v>3.8238859999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>970.464000</v>
+        <v>970.46400000000006</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.750100</v>
+        <v>-79.750100000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>13776.749529</v>
+        <v>13776.749529000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>3.826875</v>
+        <v>3.8268749999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>978.617000</v>
+        <v>978.61699999999996</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.527000</v>
+        <v>-91.527000000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>13787.746827</v>
+        <v>13787.746827000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>3.829930</v>
+        <v>3.8299300000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>988.510000</v>
+        <v>988.51</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.386000</v>
+        <v>-109.386</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>13798.719852</v>
       </c>
       <c r="AZ13" s="1">
-        <v>3.832978</v>
+        <v>3.8329780000000002</v>
       </c>
       <c r="BA13" s="1">
-        <v>996.835000</v>
+        <v>996.83500000000004</v>
       </c>
       <c r="BB13" s="1">
-        <v>-125.133000</v>
+        <v>-125.133</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>13809.561374</v>
+        <v>13809.561374000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>3.835989</v>
+        <v>3.8359890000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1035.570000</v>
+        <v>1035.57</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.603000</v>
+        <v>-197.60300000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>13820.312160</v>
+        <v>13820.312159999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>3.838976</v>
+        <v>3.8389760000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1102.200000</v>
+        <v>1102.2</v>
       </c>
       <c r="BL13" s="1">
-        <v>-315.357000</v>
+        <v>-315.35700000000003</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>13831.372449</v>
       </c>
       <c r="BO13" s="1">
-        <v>3.842048</v>
+        <v>3.8420480000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1210.320000</v>
+        <v>1210.32</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-501.612000</v>
+        <v>-501.61200000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>13841.907478</v>
+        <v>13841.907477999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>3.844974</v>
+        <v>3.8449740000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1332.110000</v>
+        <v>1332.11</v>
       </c>
       <c r="BV13" s="1">
-        <v>-706.981000</v>
+        <v>-706.98099999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>13852.674165</v>
       </c>
       <c r="BY13" s="1">
-        <v>3.847965</v>
+        <v>3.8479649999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1469.370000</v>
+        <v>1469.37</v>
       </c>
       <c r="CA13" s="1">
-        <v>-925.812000</v>
+        <v>-925.81200000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>13864.715030</v>
+        <v>13864.715029999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>3.851310</v>
+        <v>3.8513099999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>1830.600000</v>
+        <v>1830.6</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1447.300000</v>
+        <v>-1447.3</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>13692.871081</v>
+        <v>13692.871080999999</v>
       </c>
       <c r="B14" s="1">
-        <v>3.803575</v>
+        <v>3.8035749999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>897.492000</v>
+        <v>897.49199999999996</v>
       </c>
       <c r="D14" s="1">
-        <v>-199.511000</v>
+        <v>-199.511</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>13702.970155</v>
+        <v>13702.970155000001</v>
       </c>
       <c r="G14" s="1">
         <v>3.806381</v>
       </c>
       <c r="H14" s="1">
-        <v>915.360000</v>
+        <v>915.36</v>
       </c>
       <c r="I14" s="1">
-        <v>-169.111000</v>
+        <v>-169.11099999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>13713.429261</v>
+        <v>13713.429260999999</v>
       </c>
       <c r="L14" s="1">
-        <v>3.809286</v>
+        <v>3.8092860000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>938.151000</v>
+        <v>938.15099999999995</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.617000</v>
+        <v>-119.617</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>13723.976719</v>
       </c>
       <c r="Q14" s="1">
-        <v>3.812216</v>
+        <v>3.8122159999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>944.971000</v>
+        <v>944.971</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.398000</v>
+        <v>-103.398</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>13734.819234</v>
+        <v>13734.819234000001</v>
       </c>
       <c r="V14" s="1">
-        <v>3.815228</v>
+        <v>3.8152279999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>951.454000</v>
+        <v>951.45399999999995</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.422400</v>
+        <v>-88.422399999999996</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>13745.351779</v>
+        <v>13745.351779000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>3.818153</v>
+        <v>3.8181530000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>958.541000</v>
+        <v>958.54100000000005</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.842300</v>
+        <v>-76.842299999999994</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>13755.847157</v>
@@ -3655,13 +4071,13 @@
         <v>3.821069</v>
       </c>
       <c r="AG14" s="1">
-        <v>963.251000</v>
+        <v>963.25099999999998</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.839100</v>
+        <v>-74.839100000000002</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>13766.335063</v>
@@ -3670,270 +4086,270 @@
         <v>3.823982</v>
       </c>
       <c r="AL14" s="1">
-        <v>970.479000</v>
+        <v>970.47900000000004</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.754500</v>
+        <v>-79.754499999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>13777.413672</v>
+        <v>13777.413672000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>3.827059</v>
+        <v>3.8270590000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>978.613000</v>
+        <v>978.61300000000006</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.503600</v>
+        <v>-91.503600000000006</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>13788.403036</v>
       </c>
       <c r="AU14" s="1">
-        <v>3.830112</v>
+        <v>3.8301120000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>988.522000</v>
+        <v>988.52200000000005</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.384000</v>
+        <v>-109.384</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>13799.131500</v>
+        <v>13799.1315</v>
       </c>
       <c r="AZ14" s="1">
-        <v>3.833092</v>
+        <v>3.8330920000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>996.842000</v>
+        <v>996.84199999999998</v>
       </c>
       <c r="BB14" s="1">
-        <v>-125.152000</v>
+        <v>-125.152</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>13809.768734</v>
+        <v>13809.768733999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>3.836047</v>
+        <v>3.8360470000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1035.580000</v>
+        <v>1035.58</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.591000</v>
+        <v>-197.59100000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>13820.686308</v>
       </c>
       <c r="BJ14" s="1">
-        <v>3.839080</v>
+        <v>3.83908</v>
       </c>
       <c r="BK14" s="1">
-        <v>1102.210000</v>
+        <v>1102.21</v>
       </c>
       <c r="BL14" s="1">
-        <v>-315.344000</v>
+        <v>-315.34399999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>13831.794048</v>
       </c>
       <c r="BO14" s="1">
-        <v>3.842165</v>
+        <v>3.8421650000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1210.290000</v>
+        <v>1210.29</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-501.610000</v>
+        <v>-501.61</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>13842.453570</v>
+        <v>13842.45357</v>
       </c>
       <c r="BT14" s="1">
         <v>3.845126</v>
       </c>
       <c r="BU14" s="1">
-        <v>1332.090000</v>
+        <v>1332.09</v>
       </c>
       <c r="BV14" s="1">
-        <v>-707.048000</v>
+        <v>-707.048</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>13853.095236</v>
+        <v>13853.095235999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>3.848082</v>
+        <v>3.8480819999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1469.400000</v>
+        <v>1469.4</v>
       </c>
       <c r="CA14" s="1">
-        <v>-925.783000</v>
+        <v>-925.78300000000002</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>13865.233828</v>
       </c>
       <c r="CD14" s="1">
-        <v>3.851454</v>
+        <v>3.8514539999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1831.880000</v>
+        <v>1831.88</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1446.980000</v>
+        <v>-1446.98</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>13693.211832</v>
+        <v>13693.211832000001</v>
       </c>
       <c r="B15" s="1">
-        <v>3.803670</v>
+        <v>3.8036699999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>897.520000</v>
+        <v>897.52</v>
       </c>
       <c r="D15" s="1">
-        <v>-199.482000</v>
+        <v>-199.482</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>13703.316331</v>
       </c>
       <c r="G15" s="1">
-        <v>3.806477</v>
+        <v>3.8064770000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>915.418000</v>
+        <v>915.41800000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-168.912000</v>
+        <v>-168.91200000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>13714.123164</v>
+        <v>13714.123164000001</v>
       </c>
       <c r="L15" s="1">
-        <v>3.809479</v>
+        <v>3.8094790000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>938.144000</v>
+        <v>938.14400000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.502000</v>
+        <v>-119.502</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>13724.674062</v>
       </c>
       <c r="Q15" s="1">
-        <v>3.812409</v>
+        <v>3.8124090000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>944.998000</v>
+        <v>944.99800000000005</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.365000</v>
+        <v>-103.36499999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>13735.162466</v>
       </c>
       <c r="V15" s="1">
-        <v>3.815323</v>
+        <v>3.8153229999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>951.553000</v>
+        <v>951.553</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.364700</v>
+        <v>-88.364699999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>13745.700466</v>
       </c>
       <c r="AA15" s="1">
-        <v>3.818250</v>
+        <v>3.8182499999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>958.582000</v>
+        <v>958.58199999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.928100</v>
+        <v>-76.928100000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>13756.192839</v>
+        <v>13756.192838999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.821165</v>
+        <v>3.8211650000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>963.258000</v>
+        <v>963.25800000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.829700</v>
+        <v>-74.829700000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>13766.988758</v>
       </c>
       <c r="AK15" s="1">
-        <v>3.824164</v>
+        <v>3.8241640000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>970.450000</v>
+        <v>970.45</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.745900</v>
+        <v>-79.745900000000006</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>13777.828824</v>
@@ -3942,28 +4358,28 @@
         <v>3.827175</v>
       </c>
       <c r="AQ15" s="1">
-        <v>978.624000</v>
+        <v>978.62400000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.510500</v>
+        <v>-91.510499999999993</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>13788.839114</v>
       </c>
       <c r="AU15" s="1">
-        <v>3.830233</v>
+        <v>3.8302330000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>988.540000</v>
+        <v>988.54</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.364000</v>
+        <v>-109.364</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>13799.506508</v>
@@ -3972,43 +4388,43 @@
         <v>3.833196</v>
       </c>
       <c r="BA15" s="1">
-        <v>996.825000</v>
+        <v>996.82500000000005</v>
       </c>
       <c r="BB15" s="1">
-        <v>-125.137000</v>
+        <v>-125.137</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>13810.131309</v>
       </c>
       <c r="BE15" s="1">
-        <v>3.836148</v>
+        <v>3.8361480000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1035.600000</v>
+        <v>1035.5999999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.598000</v>
+        <v>-197.59800000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>13821.061615</v>
+        <v>13821.061615000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>3.839184</v>
+        <v>3.8391839999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1102.200000</v>
+        <v>1102.2</v>
       </c>
       <c r="BL15" s="1">
-        <v>-315.351000</v>
+        <v>-315.351</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>13832.216144</v>
@@ -4017,105 +4433,105 @@
         <v>3.842282</v>
       </c>
       <c r="BP15" s="1">
-        <v>1210.340000</v>
+        <v>1210.3399999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-501.662000</v>
+        <v>-501.66199999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>13842.749218</v>
+        <v>13842.749218000001</v>
       </c>
       <c r="BT15" s="1">
         <v>3.845208</v>
       </c>
       <c r="BU15" s="1">
-        <v>1332.160000</v>
+        <v>1332.16</v>
       </c>
       <c r="BV15" s="1">
-        <v>-707.056000</v>
+        <v>-707.05600000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>13853.517828</v>
       </c>
       <c r="BY15" s="1">
-        <v>3.848199</v>
+        <v>3.8481990000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1469.250000</v>
+        <v>1469.25</v>
       </c>
       <c r="CA15" s="1">
-        <v>-925.780000</v>
+        <v>-925.78</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>13865.751188</v>
       </c>
       <c r="CD15" s="1">
-        <v>3.851598</v>
+        <v>3.8515980000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1831.420000</v>
+        <v>1831.42</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1445.900000</v>
+        <v>-1445.9</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>13693.554567</v>
+        <v>13693.554566999999</v>
       </c>
       <c r="B16" s="1">
-        <v>3.803765</v>
+        <v>3.8037649999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>897.307000</v>
+        <v>897.30700000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>-199.378000</v>
+        <v>-199.37799999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>13704.008777</v>
+        <v>13704.008776999999</v>
       </c>
       <c r="G16" s="1">
-        <v>3.806669</v>
+        <v>3.8066689999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>915.396000</v>
+        <v>915.39599999999996</v>
       </c>
       <c r="I16" s="1">
-        <v>-168.434000</v>
+        <v>-168.434</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>13714.467920</v>
+        <v>13714.467919999999</v>
       </c>
       <c r="L16" s="1">
         <v>3.809574</v>
       </c>
       <c r="M16" s="1">
-        <v>938.364000</v>
+        <v>938.36400000000003</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.539000</v>
+        <v>-119.539</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>13725.022751</v>
@@ -4124,103 +4540,103 @@
         <v>3.812506</v>
       </c>
       <c r="R16" s="1">
-        <v>945.042000</v>
+        <v>945.04200000000003</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.395000</v>
+        <v>-103.395</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>13735.506688</v>
+        <v>13735.506687999999</v>
       </c>
       <c r="V16" s="1">
-        <v>3.815419</v>
+        <v>3.8154189999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>951.551000</v>
+        <v>951.55100000000004</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.363300</v>
+        <v>-88.363299999999995</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>13746.351217</v>
+        <v>13746.351216999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>3.818431</v>
+        <v>3.8184309999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>958.544000</v>
+        <v>958.54399999999998</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.941200</v>
+        <v>-76.941199999999995</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>13756.844122</v>
       </c>
       <c r="AF16" s="1">
-        <v>3.821346</v>
+        <v>3.8213460000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>963.292000</v>
+        <v>963.29200000000003</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.858200</v>
+        <v>-74.858199999999997</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>13767.380134</v>
+        <v>13767.380134000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>3.824272</v>
+        <v>3.8242720000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>970.447000</v>
+        <v>970.447</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.759800</v>
+        <v>-79.759799999999998</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>13778.189415</v>
+        <v>13778.189415000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>3.827275</v>
+        <v>3.8272750000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>978.620000</v>
+        <v>978.62</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.520200</v>
+        <v>-91.520200000000003</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>13789.205604</v>
+        <v>13789.205604000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>3.830335</v>
+        <v>3.8303349999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>988.522000</v>
+        <v>988.52200000000005</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.384000</v>
+        <v>-109.384</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>13799.895836</v>
@@ -4229,120 +4645,120 @@
         <v>3.833304</v>
       </c>
       <c r="BA16" s="1">
-        <v>996.856000</v>
+        <v>996.85599999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-125.155000</v>
+        <v>-125.155</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>13810.555357</v>
+        <v>13810.555356999999</v>
       </c>
       <c r="BE16" s="1">
         <v>3.836265</v>
       </c>
       <c r="BF16" s="1">
-        <v>1035.570000</v>
+        <v>1035.57</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.613000</v>
+        <v>-197.613</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>13821.472798</v>
+        <v>13821.472798000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>3.839298</v>
+        <v>3.8392979999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1102.190000</v>
+        <v>1102.19</v>
       </c>
       <c r="BL16" s="1">
-        <v>-315.336000</v>
+        <v>-315.33600000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>13832.613967</v>
+        <v>13832.613966999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>3.842393</v>
+        <v>3.8423929999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1210.320000</v>
+        <v>1210.32</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-501.610000</v>
+        <v>-501.61</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>13843.180210</v>
+        <v>13843.18021</v>
       </c>
       <c r="BT16" s="1">
-        <v>3.845328</v>
+        <v>3.8453279999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1332.180000</v>
+        <v>1332.18</v>
       </c>
       <c r="BV16" s="1">
-        <v>-707.004000</v>
+        <v>-707.00400000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>13853.941907</v>
       </c>
       <c r="BY16" s="1">
-        <v>3.848317</v>
+        <v>3.8483170000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1469.340000</v>
+        <v>1469.34</v>
       </c>
       <c r="CA16" s="1">
-        <v>-925.713000</v>
+        <v>-925.71299999999997</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>13866.270499</v>
       </c>
       <c r="CD16" s="1">
-        <v>3.851742</v>
+        <v>3.8517420000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>1830.360000</v>
+        <v>1830.36</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1446.580000</v>
+        <v>-1446.58</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>13694.240535</v>
+        <v>13694.240535000001</v>
       </c>
       <c r="B17" s="1">
-        <v>3.803956</v>
+        <v>3.8039559999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>897.361000</v>
+        <v>897.36099999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-199.507000</v>
+        <v>-199.50700000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>13704.353498</v>
@@ -4351,43 +4767,43 @@
         <v>3.806765</v>
       </c>
       <c r="H17" s="1">
-        <v>915.405000</v>
+        <v>915.40499999999997</v>
       </c>
       <c r="I17" s="1">
-        <v>-168.485000</v>
+        <v>-168.48500000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>13714.816572</v>
       </c>
       <c r="L17" s="1">
-        <v>3.809671</v>
+        <v>3.8096709999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>938.230000</v>
+        <v>938.23</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.689000</v>
+        <v>-119.68899999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>13725.367965</v>
+        <v>13725.367964999999</v>
       </c>
       <c r="Q17" s="1">
         <v>3.812602</v>
       </c>
       <c r="R17" s="1">
-        <v>945.036000</v>
+        <v>945.03599999999994</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.406000</v>
+        <v>-103.40600000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>13736.163418</v>
@@ -4396,163 +4812,163 @@
         <v>3.815601</v>
       </c>
       <c r="W17" s="1">
-        <v>951.534000</v>
+        <v>951.53399999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.389300</v>
+        <v>-88.389300000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>13746.742719</v>
       </c>
       <c r="AA17" s="1">
-        <v>3.818540</v>
+        <v>3.81854</v>
       </c>
       <c r="AB17" s="1">
-        <v>958.593000</v>
+        <v>958.59299999999996</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.059100</v>
+        <v>-77.059100000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>13757.222035</v>
+        <v>13757.222035000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>3.821451</v>
+        <v>3.8214510000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>963.269000</v>
+        <v>963.26900000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.841600</v>
+        <v>-74.8416</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>13767.725815</v>
       </c>
       <c r="AK17" s="1">
-        <v>3.824368</v>
+        <v>3.8243680000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>970.471000</v>
+        <v>970.471</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.763100</v>
+        <v>-79.763099999999994</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>13778.549511</v>
+        <v>13778.549510999999</v>
       </c>
       <c r="AP17" s="1">
         <v>3.827375</v>
       </c>
       <c r="AQ17" s="1">
-        <v>978.609000</v>
+        <v>978.60900000000004</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.528900</v>
+        <v>-91.528899999999993</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>13789.570618</v>
       </c>
       <c r="AU17" s="1">
-        <v>3.830436</v>
+        <v>3.8304360000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>988.543000</v>
+        <v>988.54300000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.389000</v>
+        <v>-109.389</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>13800.318923</v>
+        <v>13800.318923000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>3.833422</v>
+        <v>3.8334220000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>996.831000</v>
+        <v>996.83100000000002</v>
       </c>
       <c r="BB17" s="1">
-        <v>-125.134000</v>
+        <v>-125.134</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>13810.851468</v>
+        <v>13810.851468000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>3.836348</v>
+        <v>3.8363480000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1035.610000</v>
+        <v>1035.6099999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.606000</v>
+        <v>-197.60599999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>13821.836005</v>
+        <v>13821.836004999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>3.839399</v>
+        <v>3.8393989999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1102.210000</v>
+        <v>1102.21</v>
       </c>
       <c r="BL17" s="1">
-        <v>-315.348000</v>
+        <v>-315.34800000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>13833.012752</v>
+        <v>13833.012752000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>3.842504</v>
+        <v>3.8425039999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1210.340000</v>
+        <v>1210.3399999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-501.626000</v>
+        <v>-501.62599999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>13843.592882</v>
+        <v>13843.592882000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>3.845442</v>
+        <v>3.8454419999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1332.200000</v>
+        <v>1332.2</v>
       </c>
       <c r="BV17" s="1">
-        <v>-707.047000</v>
+        <v>-707.04700000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>13854.360531</v>
@@ -4561,255 +4977,255 @@
         <v>3.848433</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1469.360000</v>
+        <v>1469.36</v>
       </c>
       <c r="CA17" s="1">
-        <v>-925.871000</v>
+        <v>-925.87099999999998</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>13866.787833</v>
       </c>
       <c r="CD17" s="1">
-        <v>3.851886</v>
+        <v>3.8518859999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1830.660000</v>
+        <v>1830.66</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1445.840000</v>
+        <v>-1445.84</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>13694.583270</v>
+        <v>13694.583269999999</v>
       </c>
       <c r="B18" s="1">
-        <v>3.804051</v>
+        <v>3.8040509999999998</v>
       </c>
       <c r="C18" s="1">
-        <v>897.491000</v>
+        <v>897.49099999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-199.559000</v>
+        <v>-199.559</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>13704.702154</v>
+        <v>13704.702154000001</v>
       </c>
       <c r="G18" s="1">
-        <v>3.806862</v>
+        <v>3.8068620000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>915.020000</v>
+        <v>915.02</v>
       </c>
       <c r="I18" s="1">
-        <v>-168.845000</v>
+        <v>-168.845</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>13715.468316</v>
       </c>
       <c r="L18" s="1">
-        <v>3.809852</v>
+        <v>3.8098519999999998</v>
       </c>
       <c r="M18" s="1">
-        <v>938.338000</v>
+        <v>938.33799999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.585000</v>
+        <v>-119.58499999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>13726.034588</v>
       </c>
       <c r="Q18" s="1">
-        <v>3.812787</v>
+        <v>3.8127870000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>944.975000</v>
+        <v>944.97500000000002</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.402000</v>
+        <v>-103.402</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>13736.538372</v>
+        <v>13736.538372000001</v>
       </c>
       <c r="V18" s="1">
-        <v>3.815705</v>
+        <v>3.8157049999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>951.565000</v>
+        <v>951.56500000000005</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.361800</v>
+        <v>-88.361800000000002</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>13747.094753</v>
+        <v>13747.094752999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>3.818637</v>
+        <v>3.8186369999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>958.480000</v>
+        <v>958.48</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.852400</v>
+        <v>-76.852400000000003</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>13757.566786</v>
+        <v>13757.566785999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>3.821546</v>
+        <v>3.8215460000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>963.256000</v>
+        <v>963.25599999999997</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.834100</v>
+        <v>-74.834100000000007</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>13768.075989</v>
+        <v>13768.075989000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>3.824466</v>
+        <v>3.8244660000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>970.484000</v>
+        <v>970.48400000000004</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.754300</v>
+        <v>-79.754300000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>13778.968148</v>
       </c>
       <c r="AP18" s="1">
-        <v>3.827491</v>
+        <v>3.8274910000000002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>978.624000</v>
+        <v>978.62400000000002</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.508100</v>
+        <v>-91.508099999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>13789.999657</v>
       </c>
       <c r="AU18" s="1">
-        <v>3.830555</v>
+        <v>3.8305549999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>988.529000</v>
+        <v>988.529</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.389000</v>
+        <v>-109.389</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>13800.611562</v>
       </c>
       <c r="AZ18" s="1">
-        <v>3.833503</v>
+        <v>3.8335029999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>996.851000</v>
+        <v>996.851</v>
       </c>
       <c r="BB18" s="1">
-        <v>-125.137000</v>
+        <v>-125.137</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>13811.214540</v>
+        <v>13811.214540000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>3.836448</v>
+        <v>3.8364479999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1035.580000</v>
+        <v>1035.58</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.591000</v>
+        <v>-197.59100000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>13822.210349</v>
+        <v>13822.210349000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>3.839503</v>
+        <v>3.8395030000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1102.200000</v>
+        <v>1102.2</v>
       </c>
       <c r="BL18" s="1">
-        <v>-315.350000</v>
+        <v>-315.35000000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>13833.430384</v>
+        <v>13833.430383999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>3.842620</v>
+        <v>3.8426200000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1210.350000</v>
+        <v>1210.3499999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-501.653000</v>
+        <v>-501.65300000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>13844.022913</v>
+        <v>13844.022913000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>3.845562</v>
+        <v>3.8455620000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1332.240000</v>
+        <v>1332.24</v>
       </c>
       <c r="BV18" s="1">
-        <v>-707.052000</v>
+        <v>-707.05200000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>13854.805938</v>
@@ -4818,13 +5234,13 @@
         <v>3.848557</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1469.360000</v>
+        <v>1469.36</v>
       </c>
       <c r="CA18" s="1">
-        <v>-925.794000</v>
+        <v>-925.79399999999998</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>13867.341825</v>
@@ -4833,45 +5249,45 @@
         <v>3.852039</v>
       </c>
       <c r="CE18" s="1">
-        <v>1831.690000</v>
+        <v>1831.69</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1445.940000</v>
+        <v>-1445.94</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>13694.922037</v>
       </c>
       <c r="B19" s="1">
-        <v>3.804145</v>
+        <v>3.8041450000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>897.593000</v>
+        <v>897.59299999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>-199.572000</v>
+        <v>-199.572</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>13705.358857</v>
+        <v>13705.358856999999</v>
       </c>
       <c r="G19" s="1">
-        <v>3.807044</v>
+        <v>3.8070439999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>915.041000</v>
+        <v>915.04100000000005</v>
       </c>
       <c r="I19" s="1">
-        <v>-168.809000</v>
+        <v>-168.809</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>13715.850234</v>
@@ -4880,13 +5296,13 @@
         <v>3.809958</v>
       </c>
       <c r="M19" s="1">
-        <v>938.417000</v>
+        <v>938.41700000000003</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.657000</v>
+        <v>-119.657</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>13726.417006</v>
@@ -4895,13 +5311,13 @@
         <v>3.812894</v>
       </c>
       <c r="R19" s="1">
-        <v>944.962000</v>
+        <v>944.96199999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.383000</v>
+        <v>-103.383</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>13736.883582</v>
@@ -4910,73 +5326,73 @@
         <v>3.815801</v>
       </c>
       <c r="W19" s="1">
-        <v>951.550000</v>
+        <v>951.55</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.353000</v>
+        <v>-88.352999999999994</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>13747.443408</v>
+        <v>13747.443407999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>3.818734</v>
+        <v>3.8187340000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>958.597000</v>
+        <v>958.59699999999998</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.893600</v>
+        <v>-76.893600000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>13757.913992</v>
       </c>
       <c r="AF19" s="1">
-        <v>3.821643</v>
+        <v>3.8216429999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>963.278000</v>
+        <v>963.27800000000002</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.873000</v>
+        <v>-74.873000000000005</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>13768.501556</v>
+        <v>13768.501555999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>3.824584</v>
+        <v>3.8245840000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>970.481000</v>
+        <v>970.48099999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.776600</v>
+        <v>-79.776600000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>13779.270694</v>
+        <v>13779.270694000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>3.827575</v>
+        <v>3.8275749999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>978.606000</v>
+        <v>978.60599999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.515300</v>
+        <v>-91.515299999999996</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>13790.297788</v>
@@ -4985,43 +5401,43 @@
         <v>3.830638</v>
       </c>
       <c r="AV19" s="1">
-        <v>988.533000</v>
+        <v>988.53300000000002</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.382000</v>
+        <v>-109.38200000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>13800.972153</v>
+        <v>13800.972153000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>3.833603</v>
+        <v>3.8336030000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>996.814000</v>
+        <v>996.81399999999996</v>
       </c>
       <c r="BB19" s="1">
-        <v>-125.153000</v>
+        <v>-125.15300000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>13811.577116</v>
       </c>
       <c r="BE19" s="1">
-        <v>3.836549</v>
+        <v>3.8365490000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1035.590000</v>
+        <v>1035.5899999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.598000</v>
+        <v>-197.59800000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>13822.586115</v>
@@ -5030,377 +5446,377 @@
         <v>3.839607</v>
       </c>
       <c r="BK19" s="1">
-        <v>1102.200000</v>
+        <v>1102.2</v>
       </c>
       <c r="BL19" s="1">
-        <v>-315.340000</v>
+        <v>-315.33999999999997</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>13833.851627</v>
       </c>
       <c r="BO19" s="1">
-        <v>3.842737</v>
+        <v>3.8427370000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1210.300000</v>
+        <v>1210.3</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-501.636000</v>
+        <v>-501.63600000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>13844.450466</v>
       </c>
       <c r="BT19" s="1">
-        <v>3.845681</v>
+        <v>3.8456809999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1332.280000</v>
+        <v>1332.28</v>
       </c>
       <c r="BV19" s="1">
-        <v>-707.079000</v>
+        <v>-707.07899999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>13855.227043</v>
+        <v>13855.227043000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>3.848674</v>
+        <v>3.8486739999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1469.330000</v>
+        <v>1469.33</v>
       </c>
       <c r="CA19" s="1">
-        <v>-925.852000</v>
+        <v>-925.85199999999998</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>13867.871057</v>
       </c>
       <c r="CD19" s="1">
-        <v>3.852186</v>
+        <v>3.8521860000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1830.480000</v>
+        <v>1830.48</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1446.250000</v>
+        <v>-1446.25</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>13695.360998</v>
       </c>
       <c r="B20" s="1">
-        <v>3.804267</v>
+        <v>3.8042669999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>897.555000</v>
+        <v>897.55499999999995</v>
       </c>
       <c r="D20" s="1">
-        <v>-199.534000</v>
+        <v>-199.53399999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>13705.733831</v>
       </c>
       <c r="G20" s="1">
-        <v>3.807148</v>
+        <v>3.8071480000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>914.638000</v>
+        <v>914.63800000000003</v>
       </c>
       <c r="I20" s="1">
-        <v>-168.589000</v>
+        <v>-168.589</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>13716.196441</v>
       </c>
       <c r="L20" s="1">
-        <v>3.810055</v>
+        <v>3.8100550000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>938.277000</v>
+        <v>938.27700000000004</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.587000</v>
+        <v>-119.587</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>13726.769200</v>
+        <v>13726.769200000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>3.812991</v>
+        <v>3.8129909999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>945.013000</v>
+        <v>945.01300000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.320000</v>
+        <v>-103.32</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>13737.231773</v>
       </c>
       <c r="V20" s="1">
-        <v>3.815898</v>
+        <v>3.8158979999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>951.501000</v>
+        <v>951.50099999999998</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.399400</v>
+        <v>-88.3994</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>13747.867029</v>
+        <v>13747.867028999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>3.818852</v>
+        <v>3.8188520000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>958.478000</v>
+        <v>958.47799999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.851900</v>
+        <v>-76.851900000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>13758.331089</v>
+        <v>13758.331088999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>3.821759</v>
+        <v>3.8217590000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>963.264000</v>
+        <v>963.26400000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.868400</v>
+        <v>-74.868399999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>13768.786756</v>
       </c>
       <c r="AK20" s="1">
-        <v>3.824663</v>
+        <v>3.8246630000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>970.499000</v>
+        <v>970.49900000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.778000</v>
+        <v>-79.778000000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>13779.630822</v>
+        <v>13779.630821999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>3.827675</v>
+        <v>3.8276750000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>978.628000</v>
+        <v>978.62800000000004</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.524300</v>
+        <v>-91.524299999999997</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>13790.662844</v>
       </c>
       <c r="AU20" s="1">
-        <v>3.830740</v>
+        <v>3.83074</v>
       </c>
       <c r="AV20" s="1">
-        <v>988.517000</v>
+        <v>988.51700000000005</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.369000</v>
+        <v>-109.369</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>13801.332249</v>
+        <v>13801.332248999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>3.833703</v>
+        <v>3.8337029999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>996.830000</v>
+        <v>996.83</v>
       </c>
       <c r="BB20" s="1">
-        <v>-125.153000</v>
+        <v>-125.15300000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>13812.303560</v>
+        <v>13812.30356</v>
       </c>
       <c r="BE20" s="1">
         <v>3.836751</v>
       </c>
       <c r="BF20" s="1">
-        <v>1035.600000</v>
+        <v>1035.5999999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.595000</v>
+        <v>-197.595</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>13823.336763</v>
+        <v>13823.336762999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>3.839816</v>
+        <v>3.8398159999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1102.200000</v>
+        <v>1102.2</v>
       </c>
       <c r="BL20" s="1">
-        <v>-315.321000</v>
+        <v>-315.32100000000003</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>13834.248254</v>
       </c>
       <c r="BO20" s="1">
-        <v>3.842847</v>
+        <v>3.8428469999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1210.310000</v>
+        <v>1210.31</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-501.639000</v>
+        <v>-501.63900000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>13844.863167</v>
       </c>
       <c r="BT20" s="1">
-        <v>3.845795</v>
+        <v>3.8457949999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1332.270000</v>
+        <v>1332.27</v>
       </c>
       <c r="BV20" s="1">
-        <v>-707.071000</v>
+        <v>-707.07100000000003</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>13855.649633</v>
+        <v>13855.649633000001</v>
       </c>
       <c r="BY20" s="1">
         <v>3.848792</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1469.340000</v>
+        <v>1469.34</v>
       </c>
       <c r="CA20" s="1">
-        <v>-925.782000</v>
+        <v>-925.78200000000004</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>13868.707344</v>
       </c>
       <c r="CD20" s="1">
-        <v>3.852419</v>
+        <v>3.8524189999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>1830.920000</v>
+        <v>1830.92</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1447.420000</v>
+        <v>-1447.42</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>13695.621397</v>
+        <v>13695.621397000001</v>
       </c>
       <c r="B21" s="1">
-        <v>3.804339</v>
+        <v>3.8043390000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>897.442000</v>
+        <v>897.44200000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-199.337000</v>
+        <v>-199.33699999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>13706.079047</v>
+        <v>13706.079046999999</v>
       </c>
       <c r="G21" s="1">
-        <v>3.807244</v>
+        <v>3.8072439999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>915.329000</v>
+        <v>915.32899999999995</v>
       </c>
       <c r="I21" s="1">
-        <v>-168.727000</v>
+        <v>-168.727</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>13716.542186</v>
+        <v>13716.542186000001</v>
       </c>
       <c r="L21" s="1">
-        <v>3.810151</v>
+        <v>3.8101509999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>938.384000</v>
+        <v>938.38400000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.572000</v>
+        <v>-119.572</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>13727.116861</v>
@@ -5409,178 +5825,178 @@
         <v>3.813088</v>
       </c>
       <c r="R21" s="1">
-        <v>945.025000</v>
+        <v>945.02499999999998</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.362000</v>
+        <v>-103.36199999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>13737.654861</v>
+        <v>13737.654861000001</v>
       </c>
       <c r="V21" s="1">
-        <v>3.816015</v>
+        <v>3.8160150000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>951.495000</v>
+        <v>951.495</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.344900</v>
+        <v>-88.344899999999996</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>13748.140783</v>
+        <v>13748.140783000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>3.818928</v>
+        <v>3.8189280000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>958.553000</v>
+        <v>958.553</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.908200</v>
+        <v>-76.908199999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>13758.617281</v>
+        <v>13758.617281000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>3.821838</v>
+        <v>3.8218380000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>963.289000</v>
+        <v>963.28899999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.849800</v>
+        <v>-74.849800000000002</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>13769.136931</v>
+        <v>13769.136930999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>3.824760</v>
+        <v>3.8247599999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>970.492000</v>
+        <v>970.49199999999996</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.717100</v>
+        <v>-79.717100000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>13779.990390</v>
+        <v>13779.990390000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>3.827775</v>
+        <v>3.8277749999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>978.607000</v>
+        <v>978.60699999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.513000</v>
+        <v>-91.513000000000005</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>13791.030343</v>
       </c>
       <c r="AU21" s="1">
-        <v>3.830842</v>
+        <v>3.8308420000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>988.546000</v>
+        <v>988.54600000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.379000</v>
+        <v>-109.379</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>13802.045993</v>
       </c>
       <c r="AZ21" s="1">
-        <v>3.833902</v>
+        <v>3.8339020000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>996.843000</v>
+        <v>996.84299999999996</v>
       </c>
       <c r="BB21" s="1">
-        <v>-125.124000</v>
+        <v>-125.124</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>13812.678234</v>
+        <v>13812.678234000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>3.836855</v>
+        <v>3.8368549999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1035.600000</v>
+        <v>1035.5999999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.592000</v>
+        <v>-197.59200000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>13823.710251</v>
       </c>
       <c r="BJ21" s="1">
-        <v>3.839920</v>
+        <v>3.8399200000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1102.190000</v>
+        <v>1102.19</v>
       </c>
       <c r="BL21" s="1">
-        <v>-315.347000</v>
+        <v>-315.34699999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>13834.647533</v>
+        <v>13834.647532999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>3.842958</v>
+        <v>3.8429579999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1210.290000</v>
+        <v>1210.29</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-501.620000</v>
+        <v>-501.62</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>13845.606679</v>
       </c>
       <c r="BT21" s="1">
-        <v>3.846002</v>
+        <v>3.8460019999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1332.300000</v>
+        <v>1332.3</v>
       </c>
       <c r="BV21" s="1">
-        <v>-707.053000</v>
+        <v>-707.053</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>13856.406528</v>
@@ -5589,13 +6005,13 @@
         <v>3.849002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1469.290000</v>
+        <v>1469.29</v>
       </c>
       <c r="CA21" s="1">
-        <v>-925.889000</v>
+        <v>-925.88900000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>13868.907201</v>
@@ -5604,75 +6020,75 @@
         <v>3.852474</v>
       </c>
       <c r="CE21" s="1">
-        <v>1832.050000</v>
+        <v>1832.05</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1446.670000</v>
+        <v>-1446.67</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>13695.964629</v>
       </c>
       <c r="B22" s="1">
-        <v>3.804435</v>
+        <v>3.8044349999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>897.478000</v>
+        <v>897.47799999999995</v>
       </c>
       <c r="D22" s="1">
-        <v>-199.361000</v>
+        <v>-199.36099999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>13706.422808</v>
+        <v>13706.422807999999</v>
       </c>
       <c r="G22" s="1">
-        <v>3.807340</v>
+        <v>3.8073399999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>915.330000</v>
+        <v>915.33</v>
       </c>
       <c r="I22" s="1">
-        <v>-168.960000</v>
+        <v>-168.96</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>13716.956810</v>
+        <v>13716.95681</v>
       </c>
       <c r="L22" s="1">
-        <v>3.810266</v>
+        <v>3.8102659999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>938.240000</v>
+        <v>938.24</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.600000</v>
+        <v>-119.6</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>13727.538458</v>
+        <v>13727.538458000001</v>
       </c>
       <c r="Q22" s="1">
         <v>3.813205</v>
       </c>
       <c r="R22" s="1">
-        <v>945.012000</v>
+        <v>945.01199999999994</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.391000</v>
+        <v>-103.39100000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>13737.935629</v>
@@ -5681,270 +6097,270 @@
         <v>3.816093</v>
       </c>
       <c r="W22" s="1">
-        <v>951.568000</v>
+        <v>951.56799999999998</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.447600</v>
+        <v>-88.447599999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>13748.488511</v>
       </c>
       <c r="AA22" s="1">
-        <v>3.819025</v>
+        <v>3.8190249999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>958.573000</v>
+        <v>958.57299999999998</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.881500</v>
+        <v>-76.881500000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>13758.961511</v>
       </c>
       <c r="AF22" s="1">
-        <v>3.821934</v>
+        <v>3.8219340000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>963.284000</v>
+        <v>963.28399999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.861600</v>
+        <v>-74.861599999999996</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>13769.485619</v>
+        <v>13769.485618999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>3.824857</v>
+        <v>3.8248570000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>970.460000</v>
+        <v>970.46</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.759900</v>
+        <v>-79.759900000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>13780.711572</v>
       </c>
       <c r="AP22" s="1">
-        <v>3.827975</v>
+        <v>3.8279749999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>978.613000</v>
+        <v>978.61300000000006</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.536300</v>
+        <v>-91.536299999999997</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>13791.757477</v>
+        <v>13791.757476999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>3.831044</v>
+        <v>3.8310439999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>988.528000</v>
+        <v>988.52800000000002</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.368000</v>
+        <v>-109.36799999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>13802.407080</v>
+        <v>13802.407080000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>3.834002</v>
+        <v>3.8340019999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>996.857000</v>
+        <v>996.85699999999997</v>
       </c>
       <c r="BB22" s="1">
-        <v>-125.135000</v>
+        <v>-125.13500000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>13813.071561</v>
+        <v>13813.071561000001</v>
       </c>
       <c r="BE22" s="1">
         <v>3.836964</v>
       </c>
       <c r="BF22" s="1">
-        <v>1035.590000</v>
+        <v>1035.5899999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.607000</v>
+        <v>-197.607</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>13824.086714</v>
+        <v>13824.086713999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>3.840024</v>
+        <v>3.8400240000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1102.210000</v>
+        <v>1102.21</v>
       </c>
       <c r="BL22" s="1">
-        <v>-315.340000</v>
+        <v>-315.33999999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>13835.381116</v>
       </c>
       <c r="BO22" s="1">
-        <v>3.843161</v>
+        <v>3.8431609999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1210.320000</v>
+        <v>1210.32</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-501.600000</v>
+        <v>-501.6</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>13845.720260</v>
+        <v>13845.72026</v>
       </c>
       <c r="BT22" s="1">
-        <v>3.846033</v>
+        <v>3.8460329999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>1332.410000</v>
+        <v>1332.41</v>
       </c>
       <c r="BV22" s="1">
-        <v>-707.009000</v>
+        <v>-707.00900000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>13856.530528</v>
+        <v>13856.530527999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>3.849036</v>
+        <v>3.8490359999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1469.400000</v>
+        <v>1469.4</v>
       </c>
       <c r="CA22" s="1">
-        <v>-925.807000</v>
+        <v>-925.80700000000002</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>13869.427999</v>
       </c>
       <c r="CD22" s="1">
-        <v>3.852619</v>
+        <v>3.8526189999999998</v>
       </c>
       <c r="CE22" s="1">
-        <v>1831.430000</v>
+        <v>1831.43</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1447.220000</v>
+        <v>-1447.22</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>13696.390691</v>
+        <v>13696.390691000001</v>
       </c>
       <c r="B23" s="1">
-        <v>3.804553</v>
+        <v>3.8045529999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>897.394000</v>
+        <v>897.39400000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-199.556000</v>
+        <v>-199.55600000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>13706.860774</v>
+        <v>13706.860774000001</v>
       </c>
       <c r="G23" s="1">
         <v>3.807461</v>
       </c>
       <c r="H23" s="1">
-        <v>915.248000</v>
+        <v>915.24800000000005</v>
       </c>
       <c r="I23" s="1">
-        <v>-168.607000</v>
+        <v>-168.607</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>13717.253944</v>
       </c>
       <c r="L23" s="1">
-        <v>3.810348</v>
+        <v>3.8103479999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>938.223000</v>
+        <v>938.22299999999996</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.809000</v>
+        <v>-119.809</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>13727.818203</v>
+        <v>13727.818203000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>3.813283</v>
+        <v>3.8132830000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>944.975000</v>
+        <v>944.97500000000002</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.419000</v>
+        <v>-103.419</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>13738.280812</v>
+        <v>13738.280812000001</v>
       </c>
       <c r="V23" s="1">
-        <v>3.816189</v>
+        <v>3.8161890000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>951.461000</v>
+        <v>951.46100000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.422500</v>
+        <v>-88.422499999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>13748.834686</v>
@@ -5953,255 +6369,255 @@
         <v>3.819121</v>
       </c>
       <c r="AB23" s="1">
-        <v>958.609000</v>
+        <v>958.60900000000004</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.936700</v>
+        <v>-76.936700000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>13759.304240</v>
+        <v>13759.304239999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>3.822029</v>
+        <v>3.8220290000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>963.290000</v>
+        <v>963.29</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.841800</v>
+        <v>-74.841800000000006</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>13770.184483</v>
+        <v>13770.184483000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>3.825051</v>
+        <v>3.8250510000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>970.511000</v>
+        <v>970.51099999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.774300</v>
+        <v>-79.774299999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>13781.068725</v>
+        <v>13781.068724999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>3.828075</v>
+        <v>3.8280750000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>978.625000</v>
+        <v>978.625</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.521100</v>
+        <v>-91.521100000000004</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>13792.148821</v>
+        <v>13792.148821000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>3.831152</v>
+        <v>3.8311519999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>988.527000</v>
+        <v>988.52700000000004</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.388000</v>
+        <v>-109.38800000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>13802.769655</v>
       </c>
       <c r="AZ23" s="1">
-        <v>3.834103</v>
+        <v>3.8341029999999998</v>
       </c>
       <c r="BA23" s="1">
-        <v>996.862000</v>
+        <v>996.86199999999997</v>
       </c>
       <c r="BB23" s="1">
-        <v>-125.137000</v>
+        <v>-125.137</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>13813.736881</v>
+        <v>13813.736881000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>3.837149</v>
+        <v>3.8371490000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1035.600000</v>
+        <v>1035.5999999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.583000</v>
+        <v>-197.583</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>13824.782602</v>
+        <v>13824.782601999999</v>
       </c>
       <c r="BJ23" s="1">
         <v>3.840217</v>
       </c>
       <c r="BK23" s="1">
-        <v>1102.210000</v>
+        <v>1102.21</v>
       </c>
       <c r="BL23" s="1">
-        <v>-315.317000</v>
+        <v>-315.31700000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>13835.491724</v>
       </c>
       <c r="BO23" s="1">
-        <v>3.843192</v>
+        <v>3.8431920000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1210.340000</v>
+        <v>1210.3399999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-501.597000</v>
+        <v>-501.59699999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>13846.159182</v>
+        <v>13846.159181999999</v>
       </c>
       <c r="BT23" s="1">
         <v>3.846155</v>
       </c>
       <c r="BU23" s="1">
-        <v>1332.410000</v>
+        <v>1332.41</v>
       </c>
       <c r="BV23" s="1">
-        <v>-706.974000</v>
+        <v>-706.97400000000005</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>13856.968505</v>
+        <v>13856.968505000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>3.849158</v>
+        <v>3.8491580000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1469.440000</v>
+        <v>1469.44</v>
       </c>
       <c r="CA23" s="1">
-        <v>-925.755000</v>
+        <v>-925.755</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>13869.976078</v>
       </c>
       <c r="CD23" s="1">
-        <v>3.852771</v>
+        <v>3.8527710000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1830.830000</v>
+        <v>1830.83</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1447.210000</v>
+        <v>-1447.21</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>13696.663492</v>
       </c>
       <c r="B24" s="1">
-        <v>3.804629</v>
+        <v>3.8046289999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>897.378000</v>
+        <v>897.37800000000004</v>
       </c>
       <c r="D24" s="1">
-        <v>-199.419000</v>
+        <v>-199.41900000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>13707.116677</v>
       </c>
       <c r="G24" s="1">
-        <v>3.807532</v>
+        <v>3.8075320000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>915.189000</v>
+        <v>915.18899999999996</v>
       </c>
       <c r="I24" s="1">
-        <v>-168.834000</v>
+        <v>-168.834</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>13717.600647</v>
+        <v>13717.600646999999</v>
       </c>
       <c r="L24" s="1">
-        <v>3.810445</v>
+        <v>3.8104450000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>938.208000</v>
+        <v>938.20799999999997</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.677000</v>
+        <v>-119.67700000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>13728.164906</v>
       </c>
       <c r="Q24" s="1">
-        <v>3.813379</v>
+        <v>3.8133789999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>944.983000</v>
+        <v>944.98299999999995</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.392000</v>
+        <v>-103.392</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>13738.626028</v>
+        <v>13738.626028000001</v>
       </c>
       <c r="V24" s="1">
-        <v>3.816285</v>
+        <v>3.8162850000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>951.537000</v>
+        <v>951.53700000000003</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.408000</v>
+        <v>-88.408000000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>13749.535533</v>
@@ -6210,118 +6626,118 @@
         <v>3.819315</v>
       </c>
       <c r="AB24" s="1">
-        <v>958.540000</v>
+        <v>958.54</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.940500</v>
+        <v>-76.9405</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>13759.992194</v>
       </c>
       <c r="AF24" s="1">
-        <v>3.822220</v>
+        <v>3.8222200000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>963.303000</v>
+        <v>963.303</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.891000</v>
+        <v>-74.891000000000005</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>13770.530691</v>
       </c>
       <c r="AK24" s="1">
-        <v>3.825147</v>
+        <v>3.8251469999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>970.486000</v>
+        <v>970.48599999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.722800</v>
+        <v>-79.722800000000007</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>13781.429812</v>
       </c>
       <c r="AP24" s="1">
-        <v>3.828175</v>
+        <v>3.8281749999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>978.604000</v>
+        <v>978.60400000000004</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.511600</v>
+        <v>-91.511600000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>13792.515862</v>
       </c>
       <c r="AU24" s="1">
-        <v>3.831254</v>
+        <v>3.8312539999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>988.541000</v>
+        <v>988.54100000000005</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.388000</v>
+        <v>-109.38800000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>13803.433333</v>
+        <v>13803.433333000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>3.834287</v>
+        <v>3.8342869999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>996.823000</v>
+        <v>996.82299999999998</v>
       </c>
       <c r="BB24" s="1">
-        <v>-125.127000</v>
+        <v>-125.127</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>13814.187065</v>
       </c>
       <c r="BE24" s="1">
-        <v>3.837274</v>
+        <v>3.8372739999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1035.600000</v>
+        <v>1035.5999999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.586000</v>
+        <v>-197.58600000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>13825.209659</v>
       </c>
       <c r="BJ24" s="1">
-        <v>3.840336</v>
+        <v>3.8403360000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1102.220000</v>
+        <v>1102.22</v>
       </c>
       <c r="BL24" s="1">
-        <v>-315.330000</v>
+        <v>-315.33</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>13835.888523</v>
@@ -6330,28 +6746,28 @@
         <v>3.843302</v>
       </c>
       <c r="BP24" s="1">
-        <v>1210.290000</v>
+        <v>1210.29</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-501.633000</v>
+        <v>-501.63299999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>13846.568913</v>
+        <v>13846.568912999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>3.846269</v>
+        <v>3.8462689999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1332.380000</v>
+        <v>1332.38</v>
       </c>
       <c r="BV24" s="1">
-        <v>-707.034000</v>
+        <v>-707.03399999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>13857.399023</v>
@@ -6360,270 +6776,270 @@
         <v>3.849278</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1469.410000</v>
+        <v>1469.41</v>
       </c>
       <c r="CA24" s="1">
-        <v>-925.678000</v>
+        <v>-925.678</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>13870.507293</v>
+        <v>13870.507293000001</v>
       </c>
       <c r="CD24" s="1">
         <v>3.852919</v>
       </c>
       <c r="CE24" s="1">
-        <v>1831.870000</v>
+        <v>1831.87</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1447.180000</v>
+        <v>-1447.18</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>13697.002793</v>
       </c>
       <c r="B25" s="1">
-        <v>3.804723</v>
+        <v>3.8047230000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>897.503000</v>
+        <v>897.50300000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>-199.585000</v>
+        <v>-199.58500000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>13707.458452</v>
+        <v>13707.458452000001</v>
       </c>
       <c r="G25" s="1">
-        <v>3.807627</v>
+        <v>3.8076270000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>915.250000</v>
+        <v>915.25</v>
       </c>
       <c r="I25" s="1">
-        <v>-168.626000</v>
+        <v>-168.626</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>13717.945386</v>
+        <v>13717.945385999999</v>
       </c>
       <c r="L25" s="1">
-        <v>3.810540</v>
+        <v>3.81054</v>
       </c>
       <c r="M25" s="1">
-        <v>938.368000</v>
+        <v>938.36800000000005</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.576000</v>
+        <v>-119.57599999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>13728.862776</v>
       </c>
       <c r="Q25" s="1">
-        <v>3.813573</v>
+        <v>3.8135729999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>944.988000</v>
+        <v>944.98800000000006</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.369000</v>
+        <v>-103.369</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>13739.317978</v>
+        <v>13739.317977999999</v>
       </c>
       <c r="V25" s="1">
-        <v>3.816477</v>
+        <v>3.8164769999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>951.517000</v>
+        <v>951.51700000000005</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.359800</v>
+        <v>-88.359800000000007</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>13749.882765</v>
       </c>
       <c r="AA25" s="1">
-        <v>3.819412</v>
+        <v>3.8194119999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>958.513000</v>
+        <v>958.51300000000003</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.983200</v>
+        <v>-76.983199999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>13760.335952</v>
+        <v>13760.335951999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>3.822316</v>
+        <v>3.8223159999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>963.320000</v>
+        <v>963.32</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.875600</v>
+        <v>-74.875600000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>13770.879409</v>
+        <v>13770.879408999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>3.825244</v>
+        <v>3.8252440000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>970.493000</v>
+        <v>970.49300000000005</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.750800</v>
+        <v>-79.750799999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>13782.100905</v>
+        <v>13782.100904999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>3.828361</v>
+        <v>3.8283610000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>978.614000</v>
+        <v>978.61400000000003</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.521600</v>
+        <v>-91.521600000000007</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>13793.147306</v>
+        <v>13793.147306000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>3.831430</v>
+        <v>3.8314300000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>988.510000</v>
+        <v>988.51</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.391000</v>
+        <v>-109.39100000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>13803.872262</v>
+        <v>13803.872262000001</v>
       </c>
       <c r="AZ25" s="1">
         <v>3.834409</v>
       </c>
       <c r="BA25" s="1">
-        <v>996.859000</v>
+        <v>996.85900000000004</v>
       </c>
       <c r="BB25" s="1">
-        <v>-125.135000</v>
+        <v>-125.13500000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>13814.550632</v>
       </c>
       <c r="BE25" s="1">
-        <v>3.837375</v>
+        <v>3.8373750000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1035.610000</v>
+        <v>1035.6099999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.619000</v>
+        <v>-197.619</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>13825.590587</v>
+        <v>13825.590587000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>3.840442</v>
+        <v>3.8404419999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1102.220000</v>
+        <v>1102.22</v>
       </c>
       <c r="BL25" s="1">
-        <v>-315.344000</v>
+        <v>-315.34399999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>13836.310155</v>
+        <v>13836.310154999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>3.843419</v>
+        <v>3.8434189999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1210.290000</v>
+        <v>1210.29</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-501.629000</v>
+        <v>-501.62900000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>13847.001389</v>
+        <v>13847.001388999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>3.846389</v>
+        <v>3.8463889999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1332.460000</v>
+        <v>1332.46</v>
       </c>
       <c r="BV25" s="1">
-        <v>-707.058000</v>
+        <v>-707.05799999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>13857.820127</v>
+        <v>13857.820127000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>3.849394</v>
+        <v>3.8493940000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1469.420000</v>
+        <v>1469.42</v>
       </c>
       <c r="CA25" s="1">
-        <v>-925.819000</v>
+        <v>-925.81899999999996</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>13871.023631</v>
@@ -6632,60 +7048,60 @@
         <v>3.853062</v>
       </c>
       <c r="CE25" s="1">
-        <v>1831.530000</v>
+        <v>1831.53</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1446.010000</v>
+        <v>-1446.01</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>13697.347190</v>
+        <v>13697.34719</v>
       </c>
       <c r="B26" s="1">
-        <v>3.804819</v>
+        <v>3.8048190000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>897.347000</v>
+        <v>897.34699999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>-199.531000</v>
+        <v>-199.53100000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>13707.804132</v>
+        <v>13707.804131999999</v>
       </c>
       <c r="G26" s="1">
-        <v>3.807723</v>
+        <v>3.8077230000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>915.171000</v>
+        <v>915.17100000000005</v>
       </c>
       <c r="I26" s="1">
-        <v>-168.644000</v>
+        <v>-168.64400000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>13718.641718</v>
+        <v>13718.641718000001</v>
       </c>
       <c r="L26" s="1">
-        <v>3.810734</v>
+        <v>3.8107340000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>938.356000</v>
+        <v>938.35599999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.607000</v>
+        <v>-119.607</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>13729.209513</v>
@@ -6694,118 +7110,118 @@
         <v>3.813669</v>
       </c>
       <c r="R26" s="1">
-        <v>944.994000</v>
+        <v>944.99400000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.370000</v>
+        <v>-103.37</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>13739.662668</v>
+        <v>13739.662668000001</v>
       </c>
       <c r="V26" s="1">
         <v>3.816573</v>
       </c>
       <c r="W26" s="1">
-        <v>951.537000</v>
+        <v>951.53700000000003</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.398300</v>
+        <v>-88.398300000000006</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>13750.232940</v>
+        <v>13750.23294</v>
       </c>
       <c r="AA26" s="1">
         <v>3.819509</v>
       </c>
       <c r="AB26" s="1">
-        <v>958.529000</v>
+        <v>958.529</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.992700</v>
+        <v>-76.992699999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>13760.996623</v>
+        <v>13760.996623000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>3.822499</v>
+        <v>3.8224990000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>963.279000</v>
+        <v>963.279</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.877700</v>
+        <v>-74.877700000000004</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>13771.549474</v>
+        <v>13771.549473999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>3.825430</v>
+        <v>3.8254299999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>970.477000</v>
+        <v>970.47699999999998</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.737300</v>
+        <v>-79.737300000000005</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>13782.539671</v>
       </c>
       <c r="AP26" s="1">
-        <v>3.828483</v>
+        <v>3.8284829999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>978.627000</v>
+        <v>978.62699999999995</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.542300</v>
+        <v>-91.542299999999997</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>13793.262836</v>
       </c>
       <c r="AU26" s="1">
-        <v>3.831462</v>
+        <v>3.8314620000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>988.534000</v>
+        <v>988.53399999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.378000</v>
+        <v>-109.378</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>13804.226933</v>
       </c>
       <c r="AZ26" s="1">
-        <v>3.834507</v>
+        <v>3.8345069999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>996.836000</v>
+        <v>996.83600000000001</v>
       </c>
       <c r="BB26" s="1">
-        <v>-125.127000</v>
+        <v>-125.127</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>13814.910764</v>
@@ -6814,43 +7230,43 @@
         <v>3.837475</v>
       </c>
       <c r="BF26" s="1">
-        <v>1035.590000</v>
+        <v>1035.5899999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.607000</v>
+        <v>-197.607</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>13826.162969</v>
+        <v>13826.162969000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>3.840601</v>
+        <v>3.8406009999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1102.220000</v>
+        <v>1102.22</v>
       </c>
       <c r="BL26" s="1">
-        <v>-315.313000</v>
+        <v>-315.31299999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>13836.731226</v>
       </c>
       <c r="BO26" s="1">
-        <v>3.843536</v>
+        <v>3.8435359999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1210.310000</v>
+        <v>1210.31</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-501.615000</v>
+        <v>-501.61500000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>13847.428972</v>
@@ -6859,45 +7275,46 @@
         <v>3.846508</v>
       </c>
       <c r="BU26" s="1">
-        <v>1332.480000</v>
+        <v>1332.48</v>
       </c>
       <c r="BV26" s="1">
-        <v>-706.991000</v>
+        <v>-706.99099999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>13858.238254</v>
       </c>
       <c r="BY26" s="1">
-        <v>3.849511</v>
+        <v>3.8495110000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1469.390000</v>
+        <v>1469.39</v>
       </c>
       <c r="CA26" s="1">
-        <v>-925.781000</v>
+        <v>-925.78099999999995</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>13871.546909</v>
+        <v>13871.546909000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>3.853207</v>
+        <v>3.8532069999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>1830.670000</v>
+        <v>1830.67</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1446.430000</v>
+        <v>-1446.43</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>